--- a/data/CS1_2/Market Data/CS1_market_data_2030.xlsx
+++ b/data/CS1_2/Market Data/CS1_market_data_2030.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\HR1\Market Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\CS1_2\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C62D4B6-93EA-4CD3-A67C-6B1FD697A167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF2DDB2-BF53-493A-9268-2453852298A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3408,7 +3408,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4056,8 +4056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78B4B357-A191-4ADB-99F3-51F24895E56A}">
   <dimension ref="A1:Y7"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B6"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/CS1_2/Market Data/CS1_market_data_2030.xlsx
+++ b/data/CS1_2/Market Data/CS1_market_data_2030.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\CS1_2\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF2DDB2-BF53-493A-9268-2453852298A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E0259D-14DD-41CD-AC62-58A96209AD00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,10 +18,10 @@
     <sheet name="Csr, Winter" sheetId="3" r:id="rId3"/>
     <sheet name="Ctr_up, Winter" sheetId="4" r:id="rId4"/>
     <sheet name="Ctr_down, Winter" sheetId="5" r:id="rId5"/>
-    <sheet name="Cp, Summer" sheetId="6" r:id="rId6"/>
-    <sheet name="Csr, Summer" sheetId="7" r:id="rId7"/>
-    <sheet name="Ctr_up, Summer" sheetId="8" r:id="rId8"/>
-    <sheet name="Ctr_down, Summer" sheetId="9" r:id="rId9"/>
+    <sheet name="Cp, Summer" sheetId="10" r:id="rId6"/>
+    <sheet name="Csr, Summer" sheetId="11" r:id="rId7"/>
+    <sheet name="Ctr_up, Summer" sheetId="12" r:id="rId8"/>
+    <sheet name="Ctr_down, Summer" sheetId="13" r:id="rId9"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId10"/>
@@ -131,33 +131,31 @@
       <sheetName val="Secondary Reserve, Winter"/>
       <sheetName val="Tertiary Reserve Up, Winter"/>
       <sheetName val="Tertiary Reserve Down, Winter"/>
-      <sheetName val="Flexibility, Winter"/>
       <sheetName val="Energy, Summer"/>
       <sheetName val="Secondary Reserve, Summer"/>
       <sheetName val="Tertiary Reserve Up, Summer"/>
       <sheetName val="Tertiary Reserve Down, Summer"/>
-      <sheetName val="Flexibility, Summer"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
           <cell r="B2">
-            <v>0</v>
+            <v>0.05</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>5.0000000000000001E-3</v>
+            <v>0.05</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>5.0000000000000001E-3</v>
+            <v>0.05</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5">
-            <v>5.0000000000000001E-3</v>
+            <v>0.05</v>
           </cell>
         </row>
       </sheetData>
@@ -1088,7 +1086,6 @@
           <cell r="L4">
             <v>44</v>
           </cell>
-          <cell r="M4"/>
           <cell r="N4">
             <v>46</v>
           </cell>
@@ -1647,8 +1644,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
+      <sheetData sheetId="5">
         <row r="2">
           <cell r="B2">
             <v>35.549999999999997</v>
@@ -2017,756 +2013,756 @@
           </cell>
           <cell r="Y6">
             <v>36</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="6">
+        <row r="2">
+          <cell r="B2">
+            <v>6.52</v>
+          </cell>
+          <cell r="C2">
+            <v>10.56</v>
+          </cell>
+          <cell r="D2">
+            <v>5.92</v>
+          </cell>
+          <cell r="E2">
+            <v>6.15</v>
+          </cell>
+          <cell r="F2">
+            <v>6.79</v>
+          </cell>
+          <cell r="G2">
+            <v>6.65</v>
+          </cell>
+          <cell r="H2">
+            <v>10</v>
+          </cell>
+          <cell r="I2">
+            <v>10.19</v>
+          </cell>
+          <cell r="J2">
+            <v>9.76</v>
+          </cell>
+          <cell r="K2">
+            <v>8.0500000000000007</v>
+          </cell>
+          <cell r="L2">
+            <v>8.66</v>
+          </cell>
+          <cell r="M2">
+            <v>10</v>
+          </cell>
+          <cell r="N2">
+            <v>7.8</v>
+          </cell>
+          <cell r="O2">
+            <v>5.82</v>
+          </cell>
+          <cell r="P2">
+            <v>6.56</v>
+          </cell>
+          <cell r="Q2">
+            <v>8.0399999999999991</v>
+          </cell>
+          <cell r="R2">
+            <v>7.63</v>
+          </cell>
+          <cell r="S2">
+            <v>8.42</v>
+          </cell>
+          <cell r="T2">
+            <v>4.66</v>
+          </cell>
+          <cell r="U2">
+            <v>4.32</v>
+          </cell>
+          <cell r="V2">
+            <v>2.81</v>
+          </cell>
+          <cell r="W2">
+            <v>2.81</v>
+          </cell>
+          <cell r="X2">
+            <v>3.33</v>
+          </cell>
+          <cell r="Y2">
+            <v>8.9700000000000006</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>11.27</v>
+          </cell>
+          <cell r="C3">
+            <v>12.24</v>
+          </cell>
+          <cell r="D3">
+            <v>8.3699999999999992</v>
+          </cell>
+          <cell r="E3">
+            <v>8.5399999999999991</v>
+          </cell>
+          <cell r="F3">
+            <v>8.84</v>
+          </cell>
+          <cell r="G3">
+            <v>8.93</v>
+          </cell>
+          <cell r="H3">
+            <v>17.93</v>
+          </cell>
+          <cell r="I3">
+            <v>15.6</v>
+          </cell>
+          <cell r="J3">
+            <v>9.8800000000000008</v>
+          </cell>
+          <cell r="K3">
+            <v>9.6300000000000008</v>
+          </cell>
+          <cell r="L3">
+            <v>7.71</v>
+          </cell>
+          <cell r="M3">
+            <v>7.97</v>
+          </cell>
+          <cell r="N3">
+            <v>9.08</v>
+          </cell>
+          <cell r="O3">
+            <v>7.13</v>
+          </cell>
+          <cell r="P3">
+            <v>7.4</v>
+          </cell>
+          <cell r="Q3">
+            <v>7.84</v>
+          </cell>
+          <cell r="R3">
+            <v>7.6</v>
+          </cell>
+          <cell r="S3">
+            <v>5.7</v>
+          </cell>
+          <cell r="T3">
+            <v>4.8499999999999996</v>
+          </cell>
+          <cell r="U3">
+            <v>4.2300000000000004</v>
+          </cell>
+          <cell r="V3">
+            <v>2.38</v>
+          </cell>
+          <cell r="W3">
+            <v>2.8</v>
+          </cell>
+          <cell r="X3">
+            <v>2.09</v>
+          </cell>
+          <cell r="Y3">
+            <v>12.33</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>5.88</v>
+          </cell>
+          <cell r="C4">
+            <v>8.98</v>
+          </cell>
+          <cell r="D4">
+            <v>7.64</v>
+          </cell>
+          <cell r="E4">
+            <v>7.72</v>
+          </cell>
+          <cell r="F4">
+            <v>7.64</v>
+          </cell>
+          <cell r="G4">
+            <v>7.72</v>
+          </cell>
+          <cell r="H4">
+            <v>8.23</v>
+          </cell>
+          <cell r="I4">
+            <v>7.19</v>
+          </cell>
+          <cell r="J4">
+            <v>6.72</v>
+          </cell>
+          <cell r="K4">
+            <v>6.56</v>
+          </cell>
+          <cell r="L4">
+            <v>5.75</v>
+          </cell>
+          <cell r="M4">
+            <v>4.9400000000000004</v>
+          </cell>
+          <cell r="N4">
+            <v>4.6100000000000003</v>
+          </cell>
+          <cell r="O4">
+            <v>4.6100000000000003</v>
+          </cell>
+          <cell r="P4">
+            <v>6.11</v>
+          </cell>
+          <cell r="Q4">
+            <v>4.6100000000000003</v>
+          </cell>
+          <cell r="R4">
+            <v>4.6100000000000003</v>
+          </cell>
+          <cell r="S4">
+            <v>4.66</v>
+          </cell>
+          <cell r="T4">
+            <v>5.58</v>
+          </cell>
+          <cell r="U4">
+            <v>5.56</v>
+          </cell>
+          <cell r="V4">
+            <v>5.09</v>
+          </cell>
+          <cell r="W4">
+            <v>4.33</v>
+          </cell>
+          <cell r="X4">
+            <v>4.62</v>
+          </cell>
+          <cell r="Y4">
+            <v>6.95</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>11.09</v>
+          </cell>
+          <cell r="C5">
+            <v>18.989999999999998</v>
+          </cell>
+          <cell r="D5">
+            <v>10.62</v>
+          </cell>
+          <cell r="E5">
+            <v>10.62</v>
+          </cell>
+          <cell r="F5">
+            <v>10.62</v>
+          </cell>
+          <cell r="G5">
+            <v>10.62</v>
+          </cell>
+          <cell r="H5">
+            <v>10.42</v>
+          </cell>
+          <cell r="I5">
+            <v>6.72</v>
+          </cell>
+          <cell r="J5">
+            <v>6.96</v>
+          </cell>
+          <cell r="K5">
+            <v>7.46</v>
+          </cell>
+          <cell r="L5">
+            <v>10.48</v>
+          </cell>
+          <cell r="M5">
+            <v>9.4</v>
+          </cell>
+          <cell r="N5">
+            <v>8.4600000000000009</v>
+          </cell>
+          <cell r="O5">
+            <v>8.6300000000000008</v>
+          </cell>
+          <cell r="P5">
+            <v>8.4600000000000009</v>
+          </cell>
+          <cell r="Q5">
+            <v>10.89</v>
+          </cell>
+          <cell r="R5">
+            <v>9.8699999999999992</v>
+          </cell>
+          <cell r="S5">
+            <v>8.06</v>
+          </cell>
+          <cell r="T5">
+            <v>8.06</v>
+          </cell>
+          <cell r="U5">
+            <v>8.75</v>
+          </cell>
+          <cell r="V5">
+            <v>6.17</v>
+          </cell>
+          <cell r="W5">
+            <v>6.6</v>
+          </cell>
+          <cell r="X5">
+            <v>5.72</v>
+          </cell>
+          <cell r="Y5">
+            <v>10.26</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>7.58</v>
+          </cell>
+          <cell r="C6">
+            <v>9.4499999999999993</v>
+          </cell>
+          <cell r="D6">
+            <v>6.33</v>
+          </cell>
+          <cell r="E6">
+            <v>6.8</v>
+          </cell>
+          <cell r="F6">
+            <v>6.8</v>
+          </cell>
+          <cell r="G6">
+            <v>6.25</v>
+          </cell>
+          <cell r="H6">
+            <v>7.77</v>
+          </cell>
+          <cell r="I6">
+            <v>9.4499999999999993</v>
+          </cell>
+          <cell r="J6">
+            <v>9.2200000000000006</v>
+          </cell>
+          <cell r="K6">
+            <v>8.6199999999999992</v>
+          </cell>
+          <cell r="L6">
+            <v>7.09</v>
+          </cell>
+          <cell r="M6">
+            <v>6.43</v>
+          </cell>
+          <cell r="N6">
+            <v>5.85</v>
+          </cell>
+          <cell r="O6">
+            <v>6.44</v>
+          </cell>
+          <cell r="P6">
+            <v>6.79</v>
+          </cell>
+          <cell r="Q6">
+            <v>8.14</v>
+          </cell>
+          <cell r="R6">
+            <v>8.51</v>
+          </cell>
+          <cell r="S6">
+            <v>9.17</v>
+          </cell>
+          <cell r="T6">
+            <v>8.7899999999999991</v>
+          </cell>
+          <cell r="U6">
+            <v>7.6</v>
+          </cell>
+          <cell r="V6">
+            <v>6.29</v>
+          </cell>
+          <cell r="W6">
+            <v>6.62</v>
+          </cell>
+          <cell r="X6">
+            <v>6.53</v>
+          </cell>
+          <cell r="Y6">
+            <v>7.99</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="7">
         <row r="2">
           <cell r="B2">
-            <v>6.52</v>
+            <v>36.4</v>
           </cell>
           <cell r="C2">
-            <v>10.56</v>
+            <v>36.4</v>
           </cell>
           <cell r="D2">
-            <v>5.92</v>
+            <v>35.69</v>
           </cell>
           <cell r="E2">
-            <v>6.15</v>
+            <v>35.69</v>
           </cell>
           <cell r="F2">
-            <v>6.79</v>
+            <v>35.69</v>
           </cell>
           <cell r="G2">
-            <v>6.65</v>
+            <v>35.69</v>
           </cell>
           <cell r="H2">
-            <v>10</v>
+            <v>35.69</v>
           </cell>
           <cell r="I2">
-            <v>10.19</v>
+            <v>47.22</v>
           </cell>
           <cell r="J2">
-            <v>9.76</v>
+            <v>36.4</v>
           </cell>
           <cell r="K2">
-            <v>8.0500000000000007</v>
+            <v>36.4</v>
           </cell>
           <cell r="L2">
-            <v>8.66</v>
+            <v>47.22</v>
           </cell>
           <cell r="M2">
-            <v>10</v>
+            <v>47.22</v>
           </cell>
           <cell r="N2">
-            <v>7.8</v>
+            <v>42</v>
           </cell>
           <cell r="O2">
-            <v>5.82</v>
+            <v>38</v>
           </cell>
           <cell r="P2">
-            <v>6.56</v>
+            <v>38</v>
           </cell>
           <cell r="Q2">
-            <v>8.0399999999999991</v>
+            <v>47.22</v>
           </cell>
           <cell r="R2">
-            <v>7.63</v>
+            <v>47.22</v>
           </cell>
           <cell r="S2">
-            <v>8.42</v>
+            <v>47.22</v>
           </cell>
           <cell r="T2">
-            <v>4.66</v>
+            <v>47.22</v>
           </cell>
           <cell r="U2">
-            <v>4.32</v>
+            <v>47.22</v>
           </cell>
           <cell r="V2">
-            <v>2.81</v>
+            <v>47.22</v>
           </cell>
           <cell r="W2">
-            <v>2.81</v>
+            <v>47.22</v>
           </cell>
           <cell r="X2">
-            <v>3.33</v>
+            <v>47.22</v>
           </cell>
           <cell r="Y2">
-            <v>8.9700000000000006</v>
+            <v>47.22</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>11.27</v>
+            <v>47.22</v>
           </cell>
           <cell r="C3">
-            <v>12.24</v>
+            <v>47.22</v>
           </cell>
           <cell r="D3">
-            <v>8.3699999999999992</v>
+            <v>47.22</v>
           </cell>
           <cell r="E3">
-            <v>8.5399999999999991</v>
+            <v>36</v>
           </cell>
           <cell r="F3">
-            <v>8.84</v>
+            <v>35.69</v>
           </cell>
           <cell r="G3">
-            <v>8.93</v>
+            <v>35.69</v>
           </cell>
           <cell r="H3">
-            <v>17.93</v>
+            <v>35.69</v>
           </cell>
           <cell r="I3">
-            <v>15.6</v>
+            <v>47.22</v>
           </cell>
           <cell r="J3">
-            <v>9.8800000000000008</v>
+            <v>47.22</v>
           </cell>
           <cell r="K3">
-            <v>9.6300000000000008</v>
+            <v>47.22</v>
           </cell>
           <cell r="L3">
-            <v>7.71</v>
+            <v>47.22</v>
           </cell>
           <cell r="M3">
-            <v>7.97</v>
+            <v>47.22</v>
           </cell>
           <cell r="N3">
-            <v>9.08</v>
+            <v>47.22</v>
           </cell>
           <cell r="O3">
-            <v>7.13</v>
+            <v>47.22</v>
           </cell>
           <cell r="P3">
-            <v>7.4</v>
+            <v>47.22</v>
           </cell>
           <cell r="Q3">
-            <v>7.84</v>
+            <v>47.22</v>
           </cell>
           <cell r="R3">
-            <v>7.6</v>
+            <v>47.22</v>
           </cell>
           <cell r="S3">
-            <v>5.7</v>
+            <v>47.22</v>
           </cell>
           <cell r="T3">
-            <v>4.8499999999999996</v>
+            <v>47.22</v>
           </cell>
           <cell r="U3">
-            <v>4.2300000000000004</v>
+            <v>47.22</v>
           </cell>
           <cell r="V3">
-            <v>2.38</v>
+            <v>47.22</v>
           </cell>
           <cell r="W3">
-            <v>2.8</v>
+            <v>47.22</v>
           </cell>
           <cell r="X3">
-            <v>2.09</v>
+            <v>36</v>
           </cell>
           <cell r="Y3">
-            <v>12.33</v>
+            <v>47.22</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>5.88</v>
+            <v>47.22</v>
           </cell>
           <cell r="C4">
-            <v>8.98</v>
+            <v>37.4</v>
           </cell>
           <cell r="D4">
-            <v>7.64</v>
+            <v>69.040000000000006</v>
           </cell>
           <cell r="E4">
-            <v>7.72</v>
+            <v>37.4</v>
           </cell>
           <cell r="F4">
-            <v>7.64</v>
+            <v>35.69</v>
           </cell>
           <cell r="G4">
-            <v>7.72</v>
+            <v>37.4</v>
           </cell>
           <cell r="H4">
-            <v>8.23</v>
+            <v>37.4</v>
           </cell>
           <cell r="I4">
-            <v>7.19</v>
+            <v>37.4</v>
           </cell>
           <cell r="J4">
-            <v>6.72</v>
+            <v>37.4</v>
           </cell>
           <cell r="K4">
-            <v>6.56</v>
+            <v>38</v>
           </cell>
           <cell r="L4">
-            <v>5.75</v>
+            <v>38</v>
           </cell>
           <cell r="M4">
-            <v>4.9400000000000004</v>
+            <v>47.22</v>
           </cell>
           <cell r="N4">
-            <v>4.6100000000000003</v>
+            <v>47.22</v>
           </cell>
           <cell r="O4">
-            <v>4.6100000000000003</v>
+            <v>47.22</v>
           </cell>
           <cell r="P4">
-            <v>6.11</v>
+            <v>47.22</v>
           </cell>
           <cell r="Q4">
-            <v>4.6100000000000003</v>
+            <v>47.22</v>
           </cell>
           <cell r="R4">
-            <v>4.6100000000000003</v>
+            <v>47.22</v>
           </cell>
           <cell r="S4">
-            <v>4.66</v>
+            <v>47.22</v>
           </cell>
           <cell r="T4">
-            <v>5.58</v>
+            <v>47.22</v>
           </cell>
           <cell r="U4">
-            <v>5.56</v>
+            <v>47.22</v>
           </cell>
           <cell r="V4">
-            <v>5.09</v>
+            <v>47.22</v>
           </cell>
           <cell r="W4">
-            <v>4.33</v>
+            <v>95</v>
           </cell>
           <cell r="X4">
-            <v>4.62</v>
+            <v>47.22</v>
           </cell>
           <cell r="Y4">
-            <v>6.95</v>
+            <v>47.22</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5">
-            <v>11.09</v>
+            <v>37</v>
           </cell>
           <cell r="C5">
-            <v>18.989999999999998</v>
+            <v>35.69</v>
           </cell>
           <cell r="D5">
-            <v>10.62</v>
+            <v>35.69</v>
           </cell>
           <cell r="E5">
-            <v>10.62</v>
+            <v>35.69</v>
           </cell>
           <cell r="F5">
-            <v>10.62</v>
+            <v>35.69</v>
           </cell>
           <cell r="G5">
-            <v>10.62</v>
+            <v>35.69</v>
           </cell>
           <cell r="H5">
-            <v>10.42</v>
+            <v>47.22</v>
           </cell>
           <cell r="I5">
-            <v>6.72</v>
+            <v>47.22</v>
           </cell>
           <cell r="J5">
-            <v>6.96</v>
+            <v>47.22</v>
           </cell>
           <cell r="K5">
-            <v>7.46</v>
+            <v>47.22</v>
           </cell>
           <cell r="L5">
-            <v>10.48</v>
+            <v>36</v>
           </cell>
           <cell r="M5">
-            <v>9.4</v>
+            <v>38.4</v>
           </cell>
           <cell r="N5">
-            <v>8.4600000000000009</v>
+            <v>47.22</v>
           </cell>
           <cell r="O5">
-            <v>8.6300000000000008</v>
+            <v>47.22</v>
           </cell>
           <cell r="P5">
-            <v>8.4600000000000009</v>
+            <v>47.22</v>
           </cell>
           <cell r="Q5">
-            <v>10.89</v>
+            <v>47.22</v>
           </cell>
           <cell r="R5">
-            <v>9.8699999999999992</v>
+            <v>47.22</v>
           </cell>
           <cell r="S5">
-            <v>8.06</v>
+            <v>47.22</v>
           </cell>
           <cell r="T5">
-            <v>8.06</v>
+            <v>47.22</v>
           </cell>
           <cell r="U5">
-            <v>8.75</v>
+            <v>47.22</v>
           </cell>
           <cell r="V5">
-            <v>6.17</v>
+            <v>47.12</v>
           </cell>
           <cell r="W5">
-            <v>6.6</v>
+            <v>47.22</v>
           </cell>
           <cell r="X5">
-            <v>5.72</v>
+            <v>47.22</v>
           </cell>
           <cell r="Y5">
-            <v>10.26</v>
+            <v>47.043333333333329</v>
           </cell>
         </row>
         <row r="6">
           <cell r="B6">
-            <v>7.58</v>
+            <v>46.66</v>
           </cell>
           <cell r="C6">
-            <v>9.4499999999999993</v>
+            <v>46.69</v>
           </cell>
           <cell r="D6">
-            <v>6.33</v>
+            <v>37.4</v>
           </cell>
           <cell r="E6">
-            <v>6.8</v>
+            <v>37.4</v>
           </cell>
           <cell r="F6">
-            <v>6.8</v>
+            <v>37.4</v>
           </cell>
           <cell r="G6">
-            <v>6.25</v>
+            <v>37.4</v>
           </cell>
           <cell r="H6">
-            <v>7.77</v>
+            <v>47.22</v>
           </cell>
           <cell r="I6">
-            <v>9.4499999999999993</v>
+            <v>64.64</v>
           </cell>
           <cell r="J6">
-            <v>9.2200000000000006</v>
+            <v>37.4</v>
           </cell>
           <cell r="K6">
-            <v>8.6199999999999992</v>
+            <v>37.4</v>
           </cell>
           <cell r="L6">
-            <v>7.09</v>
+            <v>36</v>
           </cell>
           <cell r="M6">
-            <v>6.43</v>
+            <v>37.4</v>
           </cell>
           <cell r="N6">
-            <v>5.85</v>
+            <v>46.69</v>
           </cell>
           <cell r="O6">
-            <v>6.44</v>
+            <v>46.69</v>
           </cell>
           <cell r="P6">
-            <v>6.79</v>
+            <v>46.69</v>
           </cell>
           <cell r="Q6">
-            <v>8.14</v>
+            <v>46.69</v>
           </cell>
           <cell r="R6">
-            <v>8.51</v>
+            <v>46.69</v>
           </cell>
           <cell r="S6">
-            <v>9.17</v>
+            <v>46.69</v>
           </cell>
           <cell r="T6">
-            <v>8.7899999999999991</v>
+            <v>46.69</v>
           </cell>
           <cell r="U6">
-            <v>7.6</v>
+            <v>46.69</v>
           </cell>
           <cell r="V6">
-            <v>6.29</v>
+            <v>46.69</v>
           </cell>
           <cell r="W6">
-            <v>6.62</v>
+            <v>46.58</v>
           </cell>
           <cell r="X6">
-            <v>6.53</v>
+            <v>46.56</v>
           </cell>
           <cell r="Y6">
-            <v>7.99</v>
+            <v>46.69</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="8">
         <row r="2">
           <cell r="B2">
-            <v>36.4</v>
-          </cell>
-          <cell r="C2">
-            <v>36.4</v>
-          </cell>
-          <cell r="D2">
-            <v>35.69</v>
-          </cell>
-          <cell r="E2">
-            <v>35.69</v>
-          </cell>
-          <cell r="F2">
-            <v>35.69</v>
-          </cell>
-          <cell r="G2">
-            <v>35.69</v>
-          </cell>
-          <cell r="H2">
-            <v>35.69</v>
-          </cell>
-          <cell r="I2">
-            <v>47.22</v>
-          </cell>
-          <cell r="J2">
-            <v>36.4</v>
-          </cell>
-          <cell r="K2">
-            <v>36.4</v>
-          </cell>
-          <cell r="L2">
-            <v>47.22</v>
-          </cell>
-          <cell r="M2">
-            <v>47.22</v>
-          </cell>
-          <cell r="N2">
-            <v>42</v>
-          </cell>
-          <cell r="O2">
-            <v>38</v>
-          </cell>
-          <cell r="P2">
-            <v>38</v>
-          </cell>
-          <cell r="Q2">
-            <v>47.22</v>
-          </cell>
-          <cell r="R2">
-            <v>47.22</v>
-          </cell>
-          <cell r="S2">
-            <v>47.22</v>
-          </cell>
-          <cell r="T2">
-            <v>47.22</v>
-          </cell>
-          <cell r="U2">
-            <v>47.22</v>
-          </cell>
-          <cell r="V2">
-            <v>47.22</v>
-          </cell>
-          <cell r="W2">
-            <v>47.22</v>
-          </cell>
-          <cell r="X2">
-            <v>47.22</v>
-          </cell>
-          <cell r="Y2">
-            <v>47.22</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>47.22</v>
-          </cell>
-          <cell r="C3">
-            <v>47.22</v>
-          </cell>
-          <cell r="D3">
-            <v>47.22</v>
-          </cell>
-          <cell r="E3">
-            <v>36</v>
-          </cell>
-          <cell r="F3">
-            <v>35.69</v>
-          </cell>
-          <cell r="G3">
-            <v>35.69</v>
-          </cell>
-          <cell r="H3">
-            <v>35.69</v>
-          </cell>
-          <cell r="I3">
-            <v>47.22</v>
-          </cell>
-          <cell r="J3">
-            <v>47.22</v>
-          </cell>
-          <cell r="K3">
-            <v>47.22</v>
-          </cell>
-          <cell r="L3">
-            <v>47.22</v>
-          </cell>
-          <cell r="M3">
-            <v>47.22</v>
-          </cell>
-          <cell r="N3">
-            <v>47.22</v>
-          </cell>
-          <cell r="O3">
-            <v>47.22</v>
-          </cell>
-          <cell r="P3">
-            <v>47.22</v>
-          </cell>
-          <cell r="Q3">
-            <v>47.22</v>
-          </cell>
-          <cell r="R3">
-            <v>47.22</v>
-          </cell>
-          <cell r="S3">
-            <v>47.22</v>
-          </cell>
-          <cell r="T3">
-            <v>47.22</v>
-          </cell>
-          <cell r="U3">
-            <v>47.22</v>
-          </cell>
-          <cell r="V3">
-            <v>47.22</v>
-          </cell>
-          <cell r="W3">
-            <v>47.22</v>
-          </cell>
-          <cell r="X3">
-            <v>36</v>
-          </cell>
-          <cell r="Y3">
-            <v>47.22</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>47.22</v>
-          </cell>
-          <cell r="C4">
-            <v>37.4</v>
-          </cell>
-          <cell r="D4">
-            <v>69.040000000000006</v>
-          </cell>
-          <cell r="E4">
-            <v>37.4</v>
-          </cell>
-          <cell r="F4">
-            <v>35.69</v>
-          </cell>
-          <cell r="G4">
-            <v>37.4</v>
-          </cell>
-          <cell r="H4">
-            <v>37.4</v>
-          </cell>
-          <cell r="I4">
-            <v>37.4</v>
-          </cell>
-          <cell r="J4">
-            <v>37.4</v>
-          </cell>
-          <cell r="K4">
-            <v>38</v>
-          </cell>
-          <cell r="L4">
-            <v>38</v>
-          </cell>
-          <cell r="M4">
-            <v>47.22</v>
-          </cell>
-          <cell r="N4">
-            <v>47.22</v>
-          </cell>
-          <cell r="O4">
-            <v>47.22</v>
-          </cell>
-          <cell r="P4">
-            <v>47.22</v>
-          </cell>
-          <cell r="Q4">
-            <v>47.22</v>
-          </cell>
-          <cell r="R4">
-            <v>47.22</v>
-          </cell>
-          <cell r="S4">
-            <v>47.22</v>
-          </cell>
-          <cell r="T4">
-            <v>47.22</v>
-          </cell>
-          <cell r="U4">
-            <v>47.22</v>
-          </cell>
-          <cell r="V4">
-            <v>47.22</v>
-          </cell>
-          <cell r="W4">
-            <v>95</v>
-          </cell>
-          <cell r="X4">
-            <v>47.22</v>
-          </cell>
-          <cell r="Y4">
-            <v>47.22</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>37</v>
-          </cell>
-          <cell r="C5">
-            <v>35.69</v>
-          </cell>
-          <cell r="D5">
-            <v>35.69</v>
-          </cell>
-          <cell r="E5">
-            <v>35.69</v>
-          </cell>
-          <cell r="F5">
-            <v>35.69</v>
-          </cell>
-          <cell r="G5">
-            <v>35.69</v>
-          </cell>
-          <cell r="H5">
-            <v>47.22</v>
-          </cell>
-          <cell r="I5">
-            <v>47.22</v>
-          </cell>
-          <cell r="J5">
-            <v>47.22</v>
-          </cell>
-          <cell r="K5">
-            <v>47.22</v>
-          </cell>
-          <cell r="L5">
-            <v>36</v>
-          </cell>
-          <cell r="M5">
-            <v>38.4</v>
-          </cell>
-          <cell r="N5">
-            <v>47.22</v>
-          </cell>
-          <cell r="O5">
-            <v>47.22</v>
-          </cell>
-          <cell r="P5">
-            <v>47.22</v>
-          </cell>
-          <cell r="Q5">
-            <v>47.22</v>
-          </cell>
-          <cell r="R5">
-            <v>47.22</v>
-          </cell>
-          <cell r="S5">
-            <v>47.22</v>
-          </cell>
-          <cell r="T5">
-            <v>47.22</v>
-          </cell>
-          <cell r="U5">
-            <v>47.22</v>
-          </cell>
-          <cell r="V5">
-            <v>47.12</v>
-          </cell>
-          <cell r="W5">
-            <v>47.22</v>
-          </cell>
-          <cell r="X5">
-            <v>47.22</v>
-          </cell>
-          <cell r="Y5">
-            <v>47.043333333333329</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>46.66</v>
-          </cell>
-          <cell r="C6">
-            <v>46.69</v>
-          </cell>
-          <cell r="D6">
-            <v>37.4</v>
-          </cell>
-          <cell r="E6">
-            <v>37.4</v>
-          </cell>
-          <cell r="F6">
-            <v>37.4</v>
-          </cell>
-          <cell r="G6">
-            <v>37.4</v>
-          </cell>
-          <cell r="H6">
-            <v>47.22</v>
-          </cell>
-          <cell r="I6">
-            <v>64.64</v>
-          </cell>
-          <cell r="J6">
-            <v>37.4</v>
-          </cell>
-          <cell r="K6">
-            <v>37.4</v>
-          </cell>
-          <cell r="L6">
-            <v>36</v>
-          </cell>
-          <cell r="M6">
-            <v>37.4</v>
-          </cell>
-          <cell r="N6">
-            <v>46.69</v>
-          </cell>
-          <cell r="O6">
-            <v>46.69</v>
-          </cell>
-          <cell r="P6">
-            <v>46.69</v>
-          </cell>
-          <cell r="Q6">
-            <v>46.69</v>
-          </cell>
-          <cell r="R6">
-            <v>46.69</v>
-          </cell>
-          <cell r="S6">
-            <v>46.69</v>
-          </cell>
-          <cell r="T6">
-            <v>46.69</v>
-          </cell>
-          <cell r="U6">
-            <v>46.69</v>
-          </cell>
-          <cell r="V6">
-            <v>46.69</v>
-          </cell>
-          <cell r="W6">
-            <v>46.58</v>
-          </cell>
-          <cell r="X6">
-            <v>46.56</v>
-          </cell>
-          <cell r="Y6">
-            <v>46.69</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="9">
-        <row r="2">
-          <cell r="B2">
             <v>27.98</v>
           </cell>
           <cell r="C2">
@@ -3136,7 +3132,6 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="10"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3408,7 +3403,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3547,99 +3542,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Energy, Winter'!B2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>30.67</v>
+        <v>49.958198203264139</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Energy, Winter'!C2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>29</v>
+        <v>47.237944176545803</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Energy, Winter'!D2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>20.010000000000002</v>
+        <v>32.594181481816605</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Energy, Winter'!E2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>17.5</v>
+        <v>28.505655968605229</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Energy, Winter'!F2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>16.670000000000002</v>
+        <v>27.153673428379953</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Energy, Winter'!G2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>25</v>
+        <v>40.722365669436037</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Energy, Winter'!H2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>30.53</v>
+        <v>49.730152955515294</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Energy, Winter'!I2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>38.53</v>
+        <v>62.761309969734825</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Energy, Winter'!J2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>42.99</v>
+        <v>70.026180005162217</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Energy, Winter'!K2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>43.52</v>
+        <v>70.889494157354264</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Energy, Winter'!L2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>44.5</v>
+        <v>72.485810891596145</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Energy, Winter'!M2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>44.02</v>
+        <v>71.70394147074299</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Energy, Winter'!N2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>43.85</v>
+        <v>71.427029384190817</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Energy, Winter'!O2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>43.01</v>
+        <v>70.05875789769776</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Energy, Winter'!P2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>40.21</v>
+        <v>65.497852942720925</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Energy, Winter'!Q2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>41.25</v>
+        <v>67.191903354569462</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Energy, Winter'!R2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>42.5</v>
+        <v>69.22802163804127</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Energy, Winter'!S2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>45</v>
+        <v>73.300258204984871</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Energy, Winter'!T2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>48.43</v>
+        <v>78.887366774831492</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Energy, Winter'!U2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>52.8</v>
+        <v>86.005636293848909</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Energy, Winter'!V2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>52.49</v>
+        <v>85.500678959547912</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Energy, Winter'!W2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>48.1</v>
+        <v>78.349831547994938</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Energy, Winter'!X2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>43.75</v>
+        <v>71.264139921513063</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Energy, Winter'!Y2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>38.5</v>
+        <v>62.712443130931497</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -3648,99 +3643,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Energy, Winter'!B3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>31.86</v>
+        <v>51.896582809129285</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Energy, Winter'!C3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>30.53</v>
+        <v>49.730152955515294</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Energy, Winter'!D3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>29.57</v>
+        <v>48.166414113808948</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Energy, Winter'!E3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>29.53</v>
+        <v>48.101258328737849</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Energy, Winter'!F3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>29.77</v>
+        <v>48.492193039164434</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Energy, Winter'!G3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>30.47</v>
+        <v>49.632419277908646</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Energy, Winter'!H3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>31.37</v>
+        <v>51.098424442008344</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Energy, Winter'!I3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>40.01</v>
+        <v>65.172074017365432</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Energy, Winter'!J3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>45.19</v>
+        <v>73.609748184072586</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Energy, Winter'!K3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>46.47</v>
+        <v>75.694733306347715</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Energy, Winter'!L3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>46.29</v>
+        <v>75.401532273527764</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Energy, Winter'!M3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>44.49</v>
+        <v>72.469521945328381</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Energy, Winter'!N3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>43.01</v>
+        <v>70.05875789769776</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Energy, Winter'!O3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>41.25</v>
+        <v>67.191903354569462</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Energy, Winter'!P3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>37.97</v>
+        <v>61.849128978739458</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Energy, Winter'!Q3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>36.01</v>
+        <v>58.656495510255667</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Energy, Winter'!R3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>38.01</v>
+        <v>61.914284763810549</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Energy, Winter'!S3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>41.51</v>
+        <v>67.615415957531596</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Energy, Winter'!T3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>45.25</v>
+        <v>73.707481861679227</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Energy, Winter'!U3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>46.55</v>
+        <v>75.825044876489898</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Energy, Winter'!V3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>46.75</v>
+        <v>76.150823801845391</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Energy, Winter'!W3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>45.09</v>
+        <v>73.446858721394847</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Energy, Winter'!X3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>40.15</v>
+        <v>65.40011926511427</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Energy, Winter'!Y3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>31.17</v>
+        <v>50.772645516652858</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -3749,99 +3744,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Energy, Winter'!B4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>33.270000000000003</v>
+        <v>54.193324232885487</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Energy, Winter'!C4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>31.18</v>
+        <v>50.788934462920629</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Energy, Winter'!D4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>30.8</v>
+        <v>50.169954504745199</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Energy, Winter'!E4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>29.9</v>
+        <v>48.703949340645501</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Energy, Winter'!F4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>29.72</v>
+        <v>48.410748307825564</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Energy, Winter'!G4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>31.1</v>
+        <v>50.658622892778432</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Energy, Winter'!H4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>38.700000000000003</v>
+        <v>63.03822205628699</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Energy, Winter'!I4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>42.1</v>
+        <v>68.576463787330297</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Energy, Winter'!J4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>42.89</v>
+        <v>69.863290542484464</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Energy, Winter'!K4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>44.1</v>
+        <v>71.834253040885173</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Energy, Winter'!L4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>43.51</v>
+        <v>70.873205211086486</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Energy, Winter'!M4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>42.1</v>
+        <v>68.576463787330297</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Energy, Winter'!N4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>40.36</v>
+        <v>65.742187136737542</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Energy, Winter'!O4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>40.08</v>
+        <v>65.286096641239851</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Energy, Winter'!P4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>36.81</v>
+        <v>59.959611211677625</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Energy, Winter'!Q4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>32.49</v>
+        <v>52.922786423999078</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Energy, Winter'!R4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>32.869999999999997</v>
+        <v>53.541766382174501</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Energy, Winter'!S4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>40.840000000000003</v>
+        <v>66.524056557590725</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Energy, Winter'!T4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>43.15</v>
+        <v>70.286803145446598</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Energy, Winter'!U4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>43.2</v>
+        <v>70.368247876785475</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Energy, Winter'!V4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>43.98</v>
+        <v>71.638785685671877</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Energy, Winter'!W4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>43.15</v>
+        <v>70.286803145446598</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Energy, Winter'!X4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>40.01</v>
+        <v>65.172074017365432</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Energy, Winter'!Y4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>32.68</v>
+        <v>53.232276403086793</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -3850,99 +3845,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Energy, Winter'!B5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>50.67</v>
+        <v>82.536090738812973</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Energy, Winter'!C5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>49.19</v>
+        <v>80.125326691182352</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Energy, Winter'!D5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>46.22</v>
+        <v>75.287509649653344</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Energy, Winter'!E5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>42</v>
+        <v>68.413574324652544</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Energy, Winter'!F5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>39.01</v>
+        <v>63.543179390587994</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Energy, Winter'!G5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>42</v>
+        <v>68.413574324652544</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Energy, Winter'!H5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>47.75</v>
+        <v>77.779718428622829</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Energy, Winter'!I5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>50.69</v>
+        <v>82.568668631348515</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Energy, Winter'!J5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>52.93</v>
+        <v>86.217392595329983</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Energy, Winter'!K5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>52.6</v>
+        <v>85.67985736849343</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Energy, Winter'!L5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>50.67</v>
+        <v>82.536090738812973</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Energy, Winter'!M5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>49.73</v>
+        <v>81.004929789642162</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Energy, Winter'!N5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>47.44</v>
+        <v>77.274761094321818</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Energy, Winter'!O5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>47.01</v>
+        <v>76.574336404807525</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Energy, Winter'!P5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>45</v>
+        <v>73.300258204984871</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Energy, Winter'!Q5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>42.97</v>
+        <v>69.993602112626661</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Energy, Winter'!R5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>43.68</v>
+        <v>71.150117297638644</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Energy, Winter'!S5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>46.81</v>
+        <v>76.248557479452046</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Energy, Winter'!T5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>49.51</v>
+        <v>80.646572971751127</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Energy, Winter'!U5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>50</v>
+        <v>81.444731338872074</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Energy, Winter'!V5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>50</v>
+        <v>81.444731338872074</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Energy, Winter'!W5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>47.11</v>
+        <v>76.737225867485265</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Energy, Winter'!X5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>38.6</v>
+        <v>62.875332593609244</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Energy, Winter'!Y5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>34.1</v>
+        <v>55.545306773110759</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -3951,99 +3946,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Energy, Winter'!B6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>30.87</v>
+        <v>50.283977128619625</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Energy, Winter'!C6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>29.48</v>
+        <v>48.019813597398979</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Energy, Winter'!D6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>26.86</v>
+        <v>43.752109675242082</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Energy, Winter'!E6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>25.71</v>
+        <v>41.878880854448028</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Energy, Winter'!F6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>26.01</v>
+        <v>42.36754924248126</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Energy, Winter'!G6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>27.97</v>
+        <v>45.560182710965037</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Energy, Winter'!H6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>31.09</v>
+        <v>50.642333946510661</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Energy, Winter'!I6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>40.25</v>
+        <v>65.563008727792024</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Energy, Winter'!J6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>43.8</v>
+        <v>71.34558465285194</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Energy, Winter'!K6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>43.19</v>
+        <v>70.351958930517696</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Energy, Winter'!L6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>43.68</v>
+        <v>71.150117297638644</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Energy, Winter'!M6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>42.72</v>
+        <v>69.586378455932305</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Energy, Winter'!N6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>41.37</v>
+        <v>67.387370709782758</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Energy, Winter'!O6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>39.979999999999997</v>
+        <v>65.123207178562112</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Energy, Winter'!P6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>39.020000000000003</v>
+        <v>63.559468336855772</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Energy, Winter'!Q6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>39.11</v>
+        <v>63.706068853265741</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Energy, Winter'!R6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>41.37</v>
+        <v>67.387370709782758</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Energy, Winter'!S6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>43.98</v>
+        <v>71.638785685671877</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Energy, Winter'!T6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>47.11</v>
+        <v>76.737225867485265</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Energy, Winter'!U6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>49.73</v>
+        <v>81.004929789642162</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Energy, Winter'!V6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>51.75</v>
+        <v>84.295296935732594</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Energy, Winter'!W6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>50.3</v>
+        <v>81.933399726905307</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Energy, Winter'!X6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>46.16</v>
+        <v>75.189775972046704</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Energy, Winter'!Y6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>44.01</v>
+        <v>71.687652524475197</v>
       </c>
     </row>
   </sheetData>
@@ -4057,7 +4052,7 @@
   <dimension ref="A1:Y7"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4145,99 +4140,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Secondary Reserve, Winter'!B2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>19.246375817666848</v>
+        <v>29.825060616294952</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Secondary Reserve, Winter'!C2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>19.750923081046427</v>
+        <v>30.606930037148125</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Secondary Reserve, Winter'!D2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>23.52451615507286</v>
+        <v>36.45466174727914</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Secondary Reserve, Winter'!E2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>25.595262215193216</v>
+        <v>39.663584162030702</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Secondary Reserve, Winter'!F2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>26.28901470234014</v>
+        <v>40.738654615703815</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Secondary Reserve, Winter'!G2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>21.527349904195361</v>
+        <v>33.359761956402004</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Secondary Reserve, Winter'!H2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>23.261731122062663</v>
+        <v>36.047438090584784</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Secondary Reserve, Winter'!I2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>12.992092032024154</v>
+        <v>20.133137586969177</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Secondary Reserve, Winter'!J2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>5.8758733381080113</v>
+        <v>9.1055209636858976</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Secondary Reserve, Winter'!K2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>4.2150719294835639</v>
+        <v>6.53186745337754</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Secondary Reserve, Winter'!L2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>3.6684790608223543</v>
+        <v>5.6848422474532718</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Secondary Reserve, Winter'!M2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>5.4028602786896558</v>
+        <v>8.3725183816360484</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Secondary Reserve, Winter'!N2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>4.1940491268427493</v>
+        <v>6.4992895608419925</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Secondary Reserve, Winter'!O2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>4.5093911664549857</v>
+        <v>6.9879579488752244</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Secondary Reserve, Winter'!P2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>4.625016580979473</v>
+        <v>7.1671363578207439</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Secondary Reserve, Winter'!Q2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>4.7196191928631439</v>
+        <v>7.3137368742307132</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Secondary Reserve, Winter'!R2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>4.1940491268427493</v>
+        <v>6.4992895608419925</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Secondary Reserve, Winter'!S2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>4.1940491268427493</v>
+        <v>6.4992895608419925</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Secondary Reserve, Winter'!T2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>4.8772902126692612</v>
+        <v>7.5580710682473287</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Secondary Reserve, Winter'!U2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>5.6656453116998531</v>
+        <v>8.7797420383304097</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Secondary Reserve, Winter'!V2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>4.1940491268427493</v>
+        <v>6.4992895608419925</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Secondary Reserve, Winter'!W2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>4.1940491268427493</v>
+        <v>6.4992895608419925</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Secondary Reserve, Winter'!X2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>6.2963293909243276</v>
+        <v>9.7570788143968752</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Secondary Reserve, Winter'!Y2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>10.038388260989537</v>
+        <v>15.555943685724568</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -4246,99 +4241,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Secondary Reserve, Winter'!B3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>25.658330623115663</v>
+        <v>39.76131783963735</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Secondary Reserve, Winter'!C3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>19.330467028230114</v>
+        <v>29.955372186437152</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Secondary Reserve, Winter'!D3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>17.375346382634245</v>
+        <v>26.925628180631112</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Secondary Reserve, Winter'!E3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>18.321372501470954</v>
+        <v>28.391633344730806</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Secondary Reserve, Winter'!F3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>17.438414790556692</v>
+        <v>27.023361858237756</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Secondary Reserve, Winter'!G3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>25.889581452164634</v>
+        <v>40.119674657528385</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Secondary Reserve, Winter'!H3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>26.656913748554413</v>
+        <v>41.308767735075918</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Secondary Reserve, Winter'!I3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>12.718795597693548</v>
+        <v>19.709624984007043</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Secondary Reserve, Winter'!J3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.9557139249875224</v>
+        <v>13.878182220143801</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Secondary Reserve, Winter'!K3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>4.1940491268427493</v>
+        <v>6.4992895608419925</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Secondary Reserve, Winter'!L3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.2213327071202214</v>
+        <v>11.190506085961024</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Secondary Reserve, Winter'!M3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>3.1429089948019597</v>
+        <v>4.8703949340645503</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Secondary Reserve, Winter'!N3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>5.2977462654855776</v>
+        <v>8.2096289189583054</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Secondary Reserve, Winter'!O3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.7153685691793923</v>
+        <v>11.956086560546421</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Secondary Reserve, Winter'!P3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>10.952880175865022</v>
+        <v>16.973082011020942</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Secondary Reserve, Winter'!Q3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>12.350896551479273</v>
+        <v>19.139511864634937</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Secondary Reserve, Winter'!R3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>10.910834570583392</v>
+        <v>16.907926225949844</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Secondary Reserve, Winter'!S3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>4.5093911664549857</v>
+        <v>6.9879579488752244</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Secondary Reserve, Winter'!T3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>6.8849678648671686</v>
+        <v>10.669259805392242</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Secondary Reserve, Winter'!U3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>6.2542837856426958</v>
+        <v>9.6919230293257783</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Secondary Reserve, Winter'!V3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>4.1940491268427493</v>
+        <v>6.4992895608419925</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Secondary Reserve, Winter'!W3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>2.0917688627611706</v>
+        <v>3.2415003072871089</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Secondary Reserve, Winter'!X3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.2949125163630768</v>
+        <v>11.304528709835445</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Secondary Reserve, Winter'!Y3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>22.809740865285125</v>
+        <v>35.347013401070484</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -4347,99 +4342,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Secondary Reserve, Winter'!B4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>24.512587879191205</v>
+        <v>37.985822696449937</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Secondary Reserve, Winter'!C4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>21.548372706836176</v>
+        <v>33.392339848937553</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Secondary Reserve, Winter'!D4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>15.893238796456732</v>
+        <v>24.628886756874916</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Secondary Reserve, Winter'!E4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>16.639548290205692</v>
+        <v>25.785401941886899</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Secondary Reserve, Winter'!F4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>16.786707908691405</v>
+        <v>26.013447189635745</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Secondary Reserve, Winter'!G4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>17.480460395838321</v>
+        <v>27.088517643308851</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Secondary Reserve, Winter'!H4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>14.600336434046563</v>
+        <v>22.625346365938665</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Secondary Reserve, Winter'!I4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>5.9704759499916822</v>
+        <v>9.2521214800958678</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Secondary Reserve, Winter'!J4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>2.0812574614407624</v>
+        <v>3.2252113610193343</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Secondary Reserve, Winter'!K4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>1.0406287307203812</v>
+        <v>1.6126056805096671</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Secondary Reserve, Winter'!L4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>2.0917688627611706</v>
+        <v>3.2415003072871089</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Secondary Reserve, Winter'!M4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>2.7224529419856438</v>
+        <v>4.2188370833535735</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Secondary Reserve, Winter'!N4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>5.4554172852916958</v>
+        <v>8.4539631129749218</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Secondary Reserve, Winter'!O4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>4.9613814232325248</v>
+        <v>7.6883826383895242</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Secondary Reserve, Winter'!P4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>5.5605312984957749</v>
+        <v>8.6168525756526666</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Secondary Reserve, Winter'!Q4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>5.0664954364366039</v>
+        <v>7.851272101067269</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Secondary Reserve, Winter'!R4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>5.0664954364366039</v>
+        <v>7.851272101067269</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Secondary Reserve, Winter'!S4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>3.1954660014039993</v>
+        <v>4.9518396654034227</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Secondary Reserve, Winter'!T4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>5.7707593249039331</v>
+        <v>8.9426315010081545</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Secondary Reserve, Winter'!U4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>5.3503032720876167</v>
+        <v>8.2910736502971769</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Secondary Reserve, Winter'!V4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>3.1429089948019597</v>
+        <v>4.8703949340645503</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Secondary Reserve, Winter'!W4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>3.6684790608223543</v>
+        <v>5.6848422474532718</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Secondary Reserve, Winter'!X4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.5037236682099842</v>
+        <v>13.177757530629503</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Secondary Reserve, Winter'!Y4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>15.619942362126126</v>
+        <v>24.205374153912782</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -4448,99 +4443,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Secondary Reserve, Winter'!B5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>3.1429089948019597</v>
+        <v>4.8703949340645503</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Secondary Reserve, Winter'!C5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>3.1429089948019597</v>
+        <v>4.8703949340645503</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Secondary Reserve, Winter'!D5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>3.6684790608223543</v>
+        <v>5.6848422474532718</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Secondary Reserve, Winter'!E5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>3.6579676595019461</v>
+        <v>5.6685533011854963</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Secondary Reserve, Winter'!F5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>3.1429089948019597</v>
+        <v>4.8703949340645503</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Secondary Reserve, Winter'!G5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>6.7167854437406422</v>
+        <v>10.408636665107851</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Secondary Reserve, Winter'!H5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.6312773586161287</v>
+        <v>11.825774990404225</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Secondary Reserve, Winter'!I5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>4.8247332060672221</v>
+        <v>7.4766263369084562</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Secondary Reserve, Winter'!J5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>5.4554172852916958</v>
+        <v>8.4539631129749218</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Secondary Reserve, Winter'!K5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>1.2508567571285389</v>
+        <v>1.9383846058651555</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Secondary Reserve, Winter'!L5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>2.8170555538693152</v>
+        <v>4.3654375997635437</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Secondary Reserve, Winter'!M5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>3.1429089948019597</v>
+        <v>4.8703949340645503</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Secondary Reserve, Winter'!N5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>3.3531370212101175</v>
+        <v>5.1961738594200382</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Secondary Reserve, Winter'!O5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>3.8681956859101043</v>
+        <v>5.9943322265409851</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Secondary Reserve, Winter'!P5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>4.2045605281631566</v>
+        <v>6.5155785071097663</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Secondary Reserve, Winter'!Q5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>4.2150719294835639</v>
+        <v>6.53186745337754</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Secondary Reserve, Winter'!R5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>4.2045605281631566</v>
+        <v>6.5155785071097663</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Secondary Reserve, Winter'!S5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>2.3965995010529992</v>
+        <v>3.7138797490525666</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Secondary Reserve, Winter'!T5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>1.0406287307203812</v>
+        <v>1.6126056805096671</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Secondary Reserve, Winter'!U5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>2.4071109023734074</v>
+        <v>3.7301686953203412</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Secondary Reserve, Winter'!V5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>1.0406287307203812</v>
+        <v>1.6126056805096671</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Secondary Reserve, Winter'!W5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>2.0917688627611706</v>
+        <v>3.2415003072871089</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Secondary Reserve, Winter'!X5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>4.1940491268427493</v>
+        <v>6.4992895608419925</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Secondary Reserve, Winter'!Y5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.4210493322079714</v>
+        <v>11.499996065048737</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -4549,99 +4544,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Secondary Reserve, Winter'!B6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>17.869382244693416</v>
+        <v>27.691208655216506</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Secondary Reserve, Winter'!C6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>22.862297871887165</v>
+        <v>35.428458132409354</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Secondary Reserve, Winter'!D6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>21.327633279107612</v>
+        <v>33.050271977314289</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Secondary Reserve, Winter'!E6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>22.420819016430031</v>
+        <v>34.744322389162825</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Secondary Reserve, Winter'!F6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>22.126499779458612</v>
+        <v>34.288231893665149</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Secondary Reserve, Winter'!G6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>19.551206455958681</v>
+        <v>30.297440058060417</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Secondary Reserve, Winter'!H6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>22.98843468773206</v>
+        <v>35.62392548762265</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Secondary Reserve, Winter'!I6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.2724728391610114</v>
+        <v>12.819400712738465</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Secondary Reserve, Winter'!J6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>4.1940491268427493</v>
+        <v>6.4992895608419925</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Secondary Reserve, Winter'!K6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>2.0917688627611706</v>
+        <v>3.2415003072871089</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Secondary Reserve, Winter'!L6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>1.5136417901387362</v>
+        <v>2.3456082625595158</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Secondary Reserve, Winter'!M6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>2.0917688627611706</v>
+        <v>3.2415003072871089</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Secondary Reserve, Winter'!N6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>2.0917688627611706</v>
+        <v>3.2415003072871089</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Secondary Reserve, Winter'!O6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>2.0917688627611706</v>
+        <v>3.2415003072871089</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Secondary Reserve, Winter'!P6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>2.1863714746448415</v>
+        <v>3.3881008236970787</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Secondary Reserve, Winter'!Q6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>2.0917688627611706</v>
+        <v>3.2415003072871089</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Secondary Reserve, Winter'!R6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>2.0917688627611706</v>
+        <v>3.2415003072871089</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Secondary Reserve, Winter'!S6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>2.0917688627611706</v>
+        <v>3.2415003072871089</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Secondary Reserve, Winter'!T6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>2.6488731327427888</v>
+        <v>4.1048144594791527</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Secondary Reserve, Winter'!U6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>2.1968828759652492</v>
+        <v>3.4043897699648524</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Secondary Reserve, Winter'!V6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>1.5136417901387362</v>
+        <v>2.3456082625595158</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Secondary Reserve, Winter'!W6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>1.8815408363530126</v>
+        <v>2.9157213819316206</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Secondary Reserve, Winter'!X6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>2.6383617314223806</v>
+        <v>4.088525513211378</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Secondary Reserve, Winter'!Y6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>3.1534203961223675</v>
+        <v>4.8866838803323249</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -4768,99 +4763,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!B2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>46.250165809794723</v>
+        <v>71.671363578207433</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!C2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>46.218631605833501</v>
+        <v>71.622496739404099</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!D2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>46.218631605833501</v>
+        <v>71.622496739404099</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!E2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>46.218631605833501</v>
+        <v>71.622496739404099</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!F2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>46.250165809794723</v>
+        <v>71.671363578207433</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!G2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>46.218631605833501</v>
+        <v>71.622496739404099</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!H2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>46.250165809794723</v>
+        <v>71.671363578207433</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!I2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.29138781990676</v>
+        <v>84.132407473054855</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!J2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>46.250165809794723</v>
+        <v>71.671363578207433</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!K2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>48.352446073876301</v>
+        <v>74.929152831762309</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!L2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>61.575788934949429</v>
+        <v>95.420647236622528</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!M2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>61.575788934949429</v>
+        <v>95.420647236622528</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!N2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>61.5442547309882</v>
+        <v>95.371780397819194</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!O2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>61.5442547309882</v>
+        <v>95.371780397819194</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!P2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>48.352446073876301</v>
+        <v>74.929152831762309</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Q2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>48.352446073876301</v>
+        <v>74.929152831762309</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!R2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>48.352446073876301</v>
+        <v>74.929152831762309</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!S2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.191529507362887</v>
+        <v>83.977662483510997</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!T2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>53.923488773692483</v>
+        <v>83.562294353682745</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!U2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>55.78400680740468</v>
+        <v>86.445437843078821</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!V2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>55.78400680740468</v>
+        <v>86.445437843078821</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!W2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>55.78400680740468</v>
+        <v>86.445437843078821</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!X2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>57.157496579937977</v>
+        <v>88.573860155401348</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Y2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>46.670621862611036</v>
+        <v>72.322921428918406</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -4869,99 +4864,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!B3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>46.250165809794723</v>
+        <v>71.671363578207433</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!C3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>46.218631605833501</v>
+        <v>71.622496739404099</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!D3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>46.218631605833501</v>
+        <v>71.622496739404099</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!E3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>46.218631605833501</v>
+        <v>71.622496739404099</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!F3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>46.218631605833501</v>
+        <v>71.622496739404099</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!G3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>46.218631605833501</v>
+        <v>71.622496739404099</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!H3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.29138781990676</v>
+        <v>84.132407473054855</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!I3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.29138781990676</v>
+        <v>84.132407473054855</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!J3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.29138781990676</v>
+        <v>84.132407473054855</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!K3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.29138781990676</v>
+        <v>84.132407473054855</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!L3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.29138781990676</v>
+        <v>84.132407473054855</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!M3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.29138781990676</v>
+        <v>84.132407473054855</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!N3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.29138781990676</v>
+        <v>84.132407473054855</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!O3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.29138781990676</v>
+        <v>84.132407473054855</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!P3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.29138781990676</v>
+        <v>84.132407473054855</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Q3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.29138781990676</v>
+        <v>84.132407473054855</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!R3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.29138781990676</v>
+        <v>84.132407473054855</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!S3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.29138781990676</v>
+        <v>84.132407473054855</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!T3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.29138781990676</v>
+        <v>84.132407473054855</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!U3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.280876418586352</v>
+        <v>84.116118526787091</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!V3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.280876418586352</v>
+        <v>84.116118526787091</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!W3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>54.280876418586352</v>
+        <v>84.116118526787091</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!X3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>48.352446073876301</v>
+        <v>74.929152831762309</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Y3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>46.670621862611036</v>
+        <v>72.322921428918406</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -4970,47 +4965,47 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!B4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>65.769838061792171</v>
+        <v>101.91993679746452</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!C4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>46.250165809794723</v>
+        <v>71.671363578207433</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!D4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>46.250165809794723</v>
+        <v>71.671363578207433</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!E4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>46.250165809794723</v>
+        <v>71.671363578207433</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!F4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>46.250165809794723</v>
+        <v>71.671363578207433</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!G4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>46.218631605833501</v>
+        <v>71.622496739404099</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!H4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>45.61948173057025</v>
+        <v>70.694026802140968</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!I4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>46.250165809794723</v>
+        <v>71.671363578207433</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!J4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>46.250165809794723</v>
+        <v>71.671363578207433</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!K4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>46.250165809794723</v>
+        <v>71.671363578207433</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!L4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>46.250165809794723</v>
+        <v>71.671363578207433</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!M4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
@@ -5018,51 +5013,51 @@
       </c>
       <c r="N4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!N4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>48.352446073876301</v>
+        <v>74.929152831762309</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!O4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>65.769838061792171</v>
+        <v>101.91993679746452</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!P4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>48.352446073876301</v>
+        <v>74.929152831762309</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Q4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>44.568341598529457</v>
+        <v>69.065132175363516</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!R4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>48.352446073876301</v>
+        <v>74.929152831762309</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!S4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>48.352446073876301</v>
+        <v>74.929152831762309</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!T4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>48.352446073876301</v>
+        <v>74.929152831762309</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!U4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>48.352446073876301</v>
+        <v>74.929152831762309</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!V4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>48.352446073876301</v>
+        <v>74.929152831762309</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!W4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>48.352446073876301</v>
+        <v>74.929152831762309</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!X4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>61.575788934949429</v>
+        <v>95.420647236622528</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Y4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>61.575788934949429</v>
+        <v>95.420647236622528</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -5071,99 +5066,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!B5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>65.769838061792171</v>
+        <v>101.91993679746452</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!C5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>46.250165809794723</v>
+        <v>71.671363578207433</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!D5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>46.250165809794723</v>
+        <v>71.671363578207433</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!E5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>45.61948173057025</v>
+        <v>70.694026802140968</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!F5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>46.218631605833501</v>
+        <v>71.622496739404099</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!G5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>46.218631605833501</v>
+        <v>71.622496739404099</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!H5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>65.769838061792171</v>
+        <v>101.91993679746452</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!I5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>65.769838061792171</v>
+        <v>101.91993679746452</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!J5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>46.670621862611036</v>
+        <v>72.322921428918406</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!K5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>49.403586205917094</v>
+        <v>76.558047458539747</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!L5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>49.403586205917094</v>
+        <v>76.558047458539747</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!M5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>49.403586205917094</v>
+        <v>76.558047458539747</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!N5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>65.769838061792171</v>
+        <v>101.91993679746452</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!O5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>65.769838061792171</v>
+        <v>101.91993679746452</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!P5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>65.769838061792171</v>
+        <v>101.91993679746452</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Q5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>65.769838061792171</v>
+        <v>101.91993679746452</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!R5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>65.769838061792171</v>
+        <v>101.91993679746452</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!S5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>65.769838061792171</v>
+        <v>101.91993679746452</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!T5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>64.697675127110571</v>
+        <v>100.25846427815152</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!U5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>64.718697929751386</v>
+        <v>100.29104217068708</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!V5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>64.718697929751386</v>
+        <v>100.29104217068708</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!W5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>64.718697929751386</v>
+        <v>100.29104217068708</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!X5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>61.5442547309882</v>
+        <v>95.371780397819194</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Y5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>49.372052001955865</v>
+        <v>76.509180619736426</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -5172,99 +5167,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!B6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>65.769838061792171</v>
+        <v>101.91993679746452</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!C6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>46.218631605833501</v>
+        <v>71.622496739404099</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!D6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>46.218631605833501</v>
+        <v>71.622496739404099</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!E6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>46.218631605833501</v>
+        <v>71.622496739404099</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!F6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>46.218631605833501</v>
+        <v>71.622496739404099</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!G6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>46.218631605833501</v>
+        <v>71.622496739404099</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!H6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>46.250165809794723</v>
+        <v>71.671363578207433</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!I6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>48.352446073876301</v>
+        <v>74.929152831762309</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!J6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>48.352446073876301</v>
+        <v>74.929152831762309</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!K6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>48.352446073876301</v>
+        <v>74.929152831762309</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!L6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>48.352446073876301</v>
+        <v>74.929152831762309</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!M6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>48.352446073876301</v>
+        <v>74.929152831762309</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!N6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>48.352446073876301</v>
+        <v>74.929152831762309</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!O6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>65.769838061792171</v>
+        <v>101.91993679746452</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!P6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>48.352446073876301</v>
+        <v>74.929152831762309</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Q6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>48.352446073876301</v>
+        <v>74.929152831762309</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!R6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>48.352446073876301</v>
+        <v>74.929152831762309</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!S6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>48.352446073876301</v>
+        <v>74.929152831762309</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!T6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>48.352446073876301</v>
+        <v>74.929152831762309</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!U6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>55.78400680740468</v>
+        <v>86.445437843078821</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!V6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>55.78400680740468</v>
+        <v>86.445437843078821</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!W6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>55.78400680740468</v>
+        <v>86.445437843078821</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!X6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>57.157496579937977</v>
+        <v>88.573860155401348</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Y6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>49.372052001955865</v>
+        <v>76.509180619736426</v>
       </c>
     </row>
   </sheetData>
@@ -5365,99 +5360,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!B2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>5.9809873513120904</v>
+        <v>9.2684104263636424</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!C2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>5.9809873513120904</v>
+        <v>9.2684104263636424</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!D2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>5.9809873513120904</v>
+        <v>9.2684104263636424</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!E2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>5.9809873513120904</v>
+        <v>9.2684104263636424</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!F2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>5.9809873513120904</v>
+        <v>9.2684104263636424</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!G2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>5.9809873513120904</v>
+        <v>9.2684104263636424</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!H2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>5.9809873513120904</v>
+        <v>9.2684104263636424</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!I2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>5.9809873513120904</v>
+        <v>9.2684104263636424</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!J2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>22.210590990021874</v>
+        <v>34.418543463807339</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!K2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>31.124259309727766</v>
+        <v>48.231569898880046</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!L2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>58.022935288651567</v>
+        <v>89.914983398114785</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!M2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>44.573597299189665</v>
+        <v>69.073276648497412</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!N2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>22.210590990021874</v>
+        <v>34.418543463807339</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!O2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>22.210590990021874</v>
+        <v>34.418543463807339</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!P2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>18.783874159568903</v>
+        <v>29.108346980512881</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Q2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>18.783874159568903</v>
+        <v>29.108346980512881</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!R2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>31.124259309727766</v>
+        <v>48.231569898880046</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!S2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>31.124259309727766</v>
+        <v>48.231569898880046</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!T2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>31.124259309727766</v>
+        <v>48.231569898880046</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!U2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>31.124259309727766</v>
+        <v>48.231569898880046</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!V2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>31.124259309727766</v>
+        <v>48.231569898880046</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!W2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>31.124259309727766</v>
+        <v>48.231569898880046</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!X2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>31.124259309727766</v>
+        <v>48.231569898880046</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Y2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>18.783874159568903</v>
+        <v>29.108346980512881</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -5466,99 +5461,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!B3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>17.46206544352761</v>
+        <v>27.06001198734025</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!C3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>32.585344093264467</v>
+        <v>50.495733430100685</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!D3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>16.671082494166921</v>
+        <v>25.834268780690227</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!E3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>16.671082494166921</v>
+        <v>25.834268780690227</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!F3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>16.671082494166921</v>
+        <v>25.834268780690227</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!G3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>16.671082494166921</v>
+        <v>25.834268780690227</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!H3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>32.585344093264467</v>
+        <v>50.495733430100685</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!I3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>33.636484225305253</v>
+        <v>52.12462805687813</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!J3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>33.636484225305253</v>
+        <v>52.12462805687813</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!K3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>25.237874570299351</v>
+        <v>39.109759988926378</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!L3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>36.642745002941908</v>
+        <v>56.783266689461612</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!M3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>33.636484225305253</v>
+        <v>52.12462805687813</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!N3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>33.636484225305253</v>
+        <v>52.12462805687813</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!O3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>55.710426998161822</v>
+        <v>86.331415219204402</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!P3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>22.897335876288523</v>
+        <v>35.482754619968603</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Q3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>22.897335876288523</v>
+        <v>35.482754619968603</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!R3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>33.636484225305253</v>
+        <v>52.12462805687813</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!S3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>55.710426998161822</v>
+        <v>86.331415219204402</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!T3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>55.710426998161822</v>
+        <v>86.331415219204402</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!U3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>35.851762053581218</v>
+        <v>55.55752348281159</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!V3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>33.636484225305253</v>
+        <v>52.12462805687813</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!W3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>33.636484225305253</v>
+        <v>52.12462805687813</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!X3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>33.636484225305253</v>
+        <v>52.12462805687813</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Y3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>21.621952516079034</v>
+        <v>33.506362472811972</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -5567,99 +5562,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!B4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>18.783874159568903</v>
+        <v>29.108346980512881</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!C4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>18.783874159568903</v>
+        <v>29.108346980512881</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!D4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>18.783874159568903</v>
+        <v>29.108346980512881</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!E4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>18.783874159568903</v>
+        <v>29.108346980512881</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!F4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>18.783874159568903</v>
+        <v>29.108346980512881</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!G4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>18.783874159568903</v>
+        <v>29.108346980512881</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!H4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>18.783874159568903</v>
+        <v>29.108346980512881</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!I4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>18.783874159568903</v>
+        <v>29.108346980512881</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!J4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>15.767101980611837</v>
+        <v>24.433419401661624</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!K4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>23.125082904897361</v>
+        <v>35.835681789103717</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!L4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>31.124259309727766</v>
+        <v>48.231569898880046</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!M4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>31.124259309727766</v>
+        <v>48.231569898880046</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!N4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>31.124259309727766</v>
+        <v>48.231569898880046</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!O4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>22.210590990021874</v>
+        <v>34.418543463807339</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!P4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>18.783874159568903</v>
+        <v>29.108346980512881</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Q4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>18.783874159568903</v>
+        <v>29.108346980512881</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!R4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>18.783874159568903</v>
+        <v>29.108346980512881</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!S4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>31.124259309727766</v>
+        <v>48.231569898880046</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!T4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>31.124259309727766</v>
+        <v>48.231569898880046</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!U4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>31.124259309727766</v>
+        <v>48.231569898880046</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!V4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>31.124259309727766</v>
+        <v>48.231569898880046</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!W4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>31.124259309727766</v>
+        <v>48.231569898880046</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!X4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>28.911609331781907</v>
+        <v>44.802746709513535</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Y4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>18.783874159568903</v>
+        <v>29.108346980512881</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -5668,99 +5663,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!B5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>26.299526103660543</v>
+        <v>40.754943561971587</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!C5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>23.135594306217772</v>
+        <v>35.851970735371495</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!D5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>23.135594306217772</v>
+        <v>35.851970735371495</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!E5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>23.135594306217772</v>
+        <v>35.851970735371495</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!F5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>23.135594306217772</v>
+        <v>35.851970735371495</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!G5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>23.135594306217772</v>
+        <v>35.851970735371495</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!H5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>23.135594306217772</v>
+        <v>35.851970735371495</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!I5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>27.350666235701333</v>
+        <v>42.383838188749031</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!J5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>26.299526103660543</v>
+        <v>40.754943561971587</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!K5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>27.350666235701333</v>
+        <v>42.383838188749031</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!L5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>26.299526103660543</v>
+        <v>40.754943561971587</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!M5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>58.022935288651567</v>
+        <v>89.914983398114785</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!N5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>31.961667614920263</v>
+        <v>49.52925595154607</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!O5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>36.348425765970489</v>
+        <v>56.327176193963929</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!P5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>22.897335876288523</v>
+        <v>35.482754619968603</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Q5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>22.897335876288523</v>
+        <v>35.482754619968603</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!R5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>27.848205898200643</v>
+        <v>43.154848312090358</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!S5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>23.135594306217772</v>
+        <v>35.851970735371495</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!T5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>23.135594306217772</v>
+        <v>35.851970735371495</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!U5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>23.135594306217772</v>
+        <v>35.851970735371495</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!V5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>31.965171415360398</v>
+        <v>49.534685600301998</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!W5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>23.135594306217772</v>
+        <v>35.851970735371495</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!X5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>23.135594306217772</v>
+        <v>35.851970735371495</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Y5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>23.135594306217772</v>
+        <v>35.851970735371495</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -5769,99 +5764,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!B6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>18.783874159568903</v>
+        <v>29.108346980512881</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!C6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>18.783874159568903</v>
+        <v>29.108346980512881</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!D6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>18.783874159568903</v>
+        <v>29.108346980512881</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!E6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>18.783874159568903</v>
+        <v>29.108346980512881</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!F6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>18.783874159568903</v>
+        <v>29.108346980512881</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!G6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>18.783874159568903</v>
+        <v>29.108346980512881</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!H6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>18.783874159568903</v>
+        <v>29.108346980512881</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!I6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>18.783874159568903</v>
+        <v>29.108346980512881</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!J6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>29.431923697142096</v>
+        <v>45.609049549768365</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!K6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>29.431923697142096</v>
+        <v>45.609049549768365</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!L6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>31.124259309727766</v>
+        <v>48.231569898880046</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!M6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>31.124259309727766</v>
+        <v>48.231569898880046</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!N6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>31.124259309727766</v>
+        <v>48.231569898880046</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!O6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>31.124259309727766</v>
+        <v>48.231569898880046</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!P6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>31.124259309727766</v>
+        <v>48.231569898880046</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Q6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>31.124259309727766</v>
+        <v>48.231569898880046</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!R6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>31.124259309727766</v>
+        <v>48.231569898880046</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!S6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>31.134770711048176</v>
+        <v>48.247858845147817</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!T6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>31.124259309727766</v>
+        <v>48.231569898880046</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!U6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>58.022935288651567</v>
+        <v>89.914983398114785</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!V6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>31.134770711048176</v>
+        <v>48.247858845147817</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!W6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>34.687624357346039</v>
+        <v>53.753522683655575</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!X6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>34.687624357346039</v>
+        <v>53.753522683655575</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Y6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>31.124259309727766</v>
+        <v>48.231569898880046</v>
       </c>
     </row>
   </sheetData>
@@ -5870,11 +5865,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51365E97-6E69-401A-9DFD-893A2C3FF085}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB224AF7-AF06-40B8-9986-34C502BD82F3}">
   <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B2" sqref="B2:Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5962,99 +5957,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Energy, Summer'!B2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>35.549999999999997</v>
+        <v>57.907203981938046</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Energy, Summer'!C2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>27.82</v>
+        <v>45.315848516948428</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Energy, Summer'!D2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>26.69</v>
+        <v>43.475197588689916</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Energy, Summer'!E2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>26</v>
+        <v>42.351260296213482</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Energy, Summer'!F2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>26</v>
+        <v>42.351260296213482</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Energy, Summer'!G2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>26.22</v>
+        <v>42.709617114104518</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Energy, Summer'!H2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>27.18</v>
+        <v>44.273355955810864</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Energy, Summer'!I2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>27.7</v>
+        <v>45.120381161735132</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Energy, Summer'!J2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>31.63</v>
+        <v>51.521937044970478</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Energy, Summer'!K2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>34.07</v>
+        <v>55.496439934307432</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Energy, Summer'!L2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>31.26</v>
+        <v>50.919246033062826</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Energy, Summer'!M2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>27.77</v>
+        <v>45.234403785609551</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Energy, Summer'!N2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>33</v>
+        <v>53.753522683655575</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Energy, Summer'!O2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>34.99</v>
+        <v>56.995022990942687</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Energy, Summer'!P2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>32.99</v>
+        <v>53.737233737387804</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Energy, Summer'!Q2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>33.53</v>
+        <v>54.616836835847614</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Energy, Summer'!R2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>34.07</v>
+        <v>55.496439934307432</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Energy, Summer'!S2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>32.57</v>
+        <v>53.053097994141275</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Energy, Summer'!T2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>27.77</v>
+        <v>45.234403785609551</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Energy, Summer'!U2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>29.36</v>
+        <v>47.824346242185683</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Energy, Summer'!V2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>34.07</v>
+        <v>55.496439934307432</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Energy, Summer'!W2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>37.11</v>
+        <v>60.448279599710858</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Energy, Summer'!X2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>36.92</v>
+        <v>60.138789620623143</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Energy, Summer'!Y2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>31.14</v>
+        <v>50.723778677849531</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -6063,99 +6058,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Energy, Summer'!B3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>34.47</v>
+        <v>56.147997785018411</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Energy, Summer'!C3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>29.79</v>
+        <v>48.524770931699983</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Energy, Summer'!D3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>28.16</v>
+        <v>45.869672690052752</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Energy, Summer'!E3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>27.74</v>
+        <v>45.185536946806224</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Energy, Summer'!F3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>27</v>
+        <v>43.98015492299092</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Energy, Summer'!G3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>26.77</v>
+        <v>43.605509158832113</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Energy, Summer'!H3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>27</v>
+        <v>43.98015492299092</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Energy, Summer'!I3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>27.85</v>
+        <v>45.364715355751748</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Energy, Summer'!J3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>33.26</v>
+        <v>54.177035286617702</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Energy, Summer'!K3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>36.4</v>
+        <v>59.291764414698868</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Energy, Summer'!L3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>36.15</v>
+        <v>58.884540758004512</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Energy, Summer'!M3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>36.520000000000003</v>
+        <v>59.487231769912171</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Energy, Summer'!N3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>36.979999999999997</v>
+        <v>60.236523298229784</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Energy, Summer'!O3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>37.5</v>
+        <v>61.083548504154059</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Energy, Summer'!P3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>37.130000000000003</v>
+        <v>60.480857492246408</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Energy, Summer'!Q3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>36.57</v>
+        <v>59.568676501251041</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Energy, Summer'!R3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>36.200000000000003</v>
+        <v>58.965985489343389</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Energy, Summer'!S3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>38.299999999999997</v>
+        <v>62.386664205576004</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Energy, Summer'!T3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>37.549999999999997</v>
+        <v>61.164993235492929</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Energy, Summer'!U3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>37</v>
+        <v>60.26910119076534</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Energy, Summer'!V3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>35.42</v>
+        <v>57.695447680456986</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Energy, Summer'!W3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>36.200000000000003</v>
+        <v>58.965985489343389</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Energy, Summer'!X3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>35.01</v>
+        <v>57.027600883478229</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Energy, Summer'!Y3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>31.97</v>
+        <v>52.075761218074803</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -6164,99 +6159,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Energy, Summer'!B4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>36.19</v>
+        <v>58.949696543075603</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Energy, Summer'!C4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>32.5</v>
+        <v>52.939075370266849</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Energy, Summer'!D4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>27.82</v>
+        <v>45.315848516948428</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Energy, Summer'!E4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>27.5</v>
+        <v>44.794602236379646</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Energy, Summer'!F4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>27.04</v>
+        <v>44.045310708062019</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Energy, Summer'!G4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>27.82</v>
+        <v>45.315848516948428</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Energy, Summer'!H4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>29.24</v>
+        <v>47.628878886972387</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Energy, Summer'!I4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>36.03</v>
+        <v>58.689073402791223</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Energy, Summer'!J4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>36.22</v>
+        <v>58.998563381878931</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Energy, Summer'!K4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>37</v>
+        <v>60.26910119076534</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Energy, Summer'!L4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>36.799999999999997</v>
+        <v>59.943322265409847</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Energy, Summer'!M4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>36.799999999999997</v>
+        <v>59.943322265409847</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Energy, Summer'!N4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>37.65</v>
+        <v>61.327882698170676</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Energy, Summer'!O4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>39.93</v>
+        <v>65.041762447223235</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Energy, Summer'!P4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>38.799999999999997</v>
+        <v>63.20111151896473</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Energy, Summer'!Q4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>37.65</v>
+        <v>61.327882698170676</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Energy, Summer'!R4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>37.51</v>
+        <v>61.09983745042183</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Energy, Summer'!S4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>37.049999999999997</v>
+        <v>60.350545922104203</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Energy, Summer'!T4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>36.56</v>
+        <v>59.55238755498327</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Energy, Summer'!U4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>36.32</v>
+        <v>59.161452844556678</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Energy, Summer'!V4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>36.5</v>
+        <v>59.454653877376614</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Energy, Summer'!W4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>37.049999999999997</v>
+        <v>60.350545922104203</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Energy, Summer'!X4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>36.72</v>
+        <v>59.81301069526765</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Energy, Summer'!Y4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>34.72</v>
+        <v>56.555221441712767</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -6265,99 +6260,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Energy, Summer'!B5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>34.65</v>
+        <v>56.441198817838348</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Energy, Summer'!C5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>27.5</v>
+        <v>44.794602236379646</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Energy, Summer'!D5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>25.7</v>
+        <v>41.862591908180249</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Energy, Summer'!E5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>25.1</v>
+        <v>40.885255132113784</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Energy, Summer'!F5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>25.1</v>
+        <v>40.885255132113784</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Energy, Summer'!G5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>26.51</v>
+        <v>43.181996555869979</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Energy, Summer'!H5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>34.64</v>
+        <v>56.424909871570577</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Energy, Summer'!I5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>39.270000000000003</v>
+        <v>63.966691993550135</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Energy, Summer'!J5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>38.119999999999997</v>
+        <v>62.093463172756067</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Energy, Summer'!K5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>37.68</v>
+        <v>61.376749536973996</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Energy, Summer'!L5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>34.950000000000003</v>
+        <v>56.929867205871588</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Energy, Summer'!M5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>33.659999999999997</v>
+        <v>54.828593137328674</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Energy, Summer'!N5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>34.28</v>
+        <v>55.838507805930696</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Energy, Summer'!O5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>35</v>
+        <v>57.011311937210458</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Energy, Summer'!P5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>34.65</v>
+        <v>56.441198817838348</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Energy, Summer'!Q5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>32.840000000000003</v>
+        <v>53.492899543371188</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Energy, Summer'!R5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>34</v>
+        <v>55.382417310433013</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Energy, Summer'!S5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>37.409999999999997</v>
+        <v>60.936947987744084</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Energy, Summer'!T5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>36.18</v>
+        <v>58.933407596807832</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Energy, Summer'!U5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>36.1</v>
+        <v>58.803096026665642</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Energy, Summer'!V5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>38.99</v>
+        <v>63.510601498052452</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Energy, Summer'!W5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>39</v>
+        <v>63.526890444320223</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Energy, Summer'!X5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>38.99</v>
+        <v>63.510601498052452</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Energy, Summer'!Y5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>34.64</v>
+        <v>56.424909871570577</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -6366,99 +6361,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Energy, Summer'!B6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>35.299999999999997</v>
+        <v>57.499980325243683</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Energy, Summer'!C6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>30</v>
+        <v>48.866838803323247</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Energy, Summer'!D6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>27</v>
+        <v>43.98015492299092</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Energy, Summer'!E6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>26.5</v>
+        <v>43.165707609602201</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Energy, Summer'!F6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>26.5</v>
+        <v>43.165707609602201</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Energy, Summer'!G6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>27.2</v>
+        <v>44.305933848346406</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Energy, Summer'!H6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>28.56</v>
+        <v>46.521230540763732</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Energy, Summer'!I6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>28.34</v>
+        <v>46.162873722872696</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Energy, Summer'!J6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>30.02</v>
+        <v>48.899416695858797</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Energy, Summer'!K6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>31.18</v>
+        <v>50.788934462920629</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Energy, Summer'!L6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>30.53</v>
+        <v>49.730152955515294</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Energy, Summer'!M6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>30.47</v>
+        <v>49.632419277908646</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Energy, Summer'!N6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>33.49</v>
+        <v>54.551681050776523</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Energy, Summer'!O6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>36.049999999999997</v>
+        <v>58.721651295326765</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Energy, Summer'!P6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>35.74</v>
+        <v>58.216693961025761</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Energy, Summer'!Q6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>34.49</v>
+        <v>56.180575677553961</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Energy, Summer'!R6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>33.99</v>
+        <v>55.366128364165242</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Energy, Summer'!S6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>33.49</v>
+        <v>54.551681050776523</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Energy, Summer'!T6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>32.24</v>
+        <v>52.515562767304722</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Energy, Summer'!U6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>35.01</v>
+        <v>57.027600883478229</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Energy, Summer'!V6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>36.049999999999997</v>
+        <v>58.721651295326765</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Energy, Summer'!W6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>37</v>
+        <v>60.26910119076534</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Energy, Summer'!X6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>37</v>
+        <v>60.26910119076534</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Energy, Summer'!Y6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>36</v>
+        <v>58.640206563987896</v>
       </c>
     </row>
   </sheetData>
@@ -6468,11 +6463,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCB008B8-ED0A-4A84-975C-A342158CCFB6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB82C02F-BCC0-4FE2-9CCD-B8D1440925A2}">
   <dimension ref="A1:Y7"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B2" sqref="B2:Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6560,99 +6555,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Secondary Reserve, Summer'!B2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>6.853433660905945</v>
+        <v>10.620392966588918</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Secondary Reserve, Summer'!C2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>11.100039794350733</v>
+        <v>17.201127258769784</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Secondary Reserve, Summer'!D2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>6.2227495816814713</v>
+        <v>9.6430561905224543</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Secondary Reserve, Summer'!E2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>6.464511812050854</v>
+        <v>10.017701954681266</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Secondary Reserve, Summer'!F2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.1372414965569586</v>
+        <v>11.060194515818829</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Secondary Reserve, Summer'!G2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>6.9900818780712486</v>
+        <v>10.832149268069987</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Secondary Reserve, Summer'!H2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>10.511401320407892</v>
+        <v>16.288946267774417</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Secondary Reserve, Summer'!I2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>10.711117945495641</v>
+        <v>16.598436246862128</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Secondary Reserve, Summer'!J2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>10.259127688718102</v>
+        <v>15.898011557347829</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Secondary Reserve, Summer'!K2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.4616780629283532</v>
+        <v>13.112601745558406</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Secondary Reserve, Summer'!L2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>9.1028735434732351</v>
+        <v>14.106227467892644</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Secondary Reserve, Summer'!M2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>10.511401320407892</v>
+        <v>16.288946267774417</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Secondary Reserve, Summer'!N2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.1988930299181551</v>
+        <v>12.705378088864045</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Secondary Reserve, Summer'!O2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>6.1176355684773931</v>
+        <v>9.4801667278447113</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Secondary Reserve, Summer'!P2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>6.8954792661875768</v>
+        <v>10.685548751660017</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Secondary Reserve, Summer'!Q2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.4511666616079442</v>
+        <v>13.096312799290629</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Secondary Reserve, Summer'!R2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.0201992074712205</v>
+        <v>12.428466002311879</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Secondary Reserve, Summer'!S2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.8505999117834442</v>
+        <v>13.715292757466058</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Secondary Reserve, Summer'!T2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>4.8983130153100776</v>
+        <v>7.590648960782878</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Secondary Reserve, Summer'!U2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>4.5409253704162094</v>
+        <v>7.0368247876785484</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Secondary Reserve, Summer'!V2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>2.9537037710346175</v>
+        <v>4.5771939012446108</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Secondary Reserve, Summer'!W2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>2.9537037710346175</v>
+        <v>4.5771939012446108</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Secondary Reserve, Summer'!X2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>3.5002966396958279</v>
+        <v>5.4242191071688808</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Secondary Reserve, Summer'!Y2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>9.4287269844058788</v>
+        <v>14.611184802193652</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -6661,99 +6656,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Secondary Reserve, Summer'!B3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>11.846349288099693</v>
+        <v>18.357642443781767</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Secondary Reserve, Summer'!C3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>12.865955216179259</v>
+        <v>19.937670231755884</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Secondary Reserve, Summer'!D3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.7980429051814042</v>
+        <v>13.633848026127184</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Secondary Reserve, Summer'!E3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.9767367276283387</v>
+        <v>13.91076011267935</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Secondary Reserve, Summer'!F3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>9.2920787672405751</v>
+        <v>14.399428500712583</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Secondary Reserve, Summer'!G3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>9.386681379124246</v>
+        <v>14.546029017122553</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Secondary Reserve, Summer'!H3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>18.84694256749135</v>
+        <v>29.206080658119525</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Secondary Reserve, Summer'!I3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>16.39778605983631</v>
+        <v>25.410756177728089</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Secondary Reserve, Summer'!J3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>10.385264504562997</v>
+        <v>16.093478912561125</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Secondary Reserve, Summer'!K3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>10.122479471552801</v>
+        <v>15.686255255866763</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Secondary Reserve, Summer'!L3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.1042904180344841</v>
+        <v>12.558777572454074</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Secondary Reserve, Summer'!M3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.3775868523650896</v>
+        <v>12.982290175416209</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Secondary Reserve, Summer'!N3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>9.544352398930366</v>
+        <v>14.790363211139169</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Secondary Reserve, Summer'!O3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.4946291414508268</v>
+        <v>11.614018688923158</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Secondary Reserve, Summer'!P3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.7784369771018405</v>
+        <v>12.053820238153069</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Secondary Reserve, Summer'!Q3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.240938635199786</v>
+        <v>12.770533873935142</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Secondary Reserve, Summer'!R3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.9886650035099969</v>
+        <v>12.379599163508555</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Secondary Reserve, Summer'!S3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>5.9914987526324985</v>
+        <v>9.2846993726314171</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Secondary Reserve, Summer'!T3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>5.0980296403978267</v>
+        <v>7.9001389398705912</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Secondary Reserve, Summer'!U3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>4.4463227585325384</v>
+        <v>6.8902242712685782</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Secondary Reserve, Summer'!V3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>2.5017135142570779</v>
+        <v>3.876769211730311</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Secondary Reserve, Summer'!W3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>2.9431923697142093</v>
+        <v>4.5609049549768361</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Secondary Reserve, Summer'!X3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>2.1968828759652492</v>
+        <v>3.4043897699648524</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Secondary Reserve, Summer'!Y3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>12.96055782806293</v>
+        <v>20.084270748165853</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -6762,99 +6757,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Secondary Reserve, Summer'!B4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>6.1807039763998404</v>
+        <v>9.5779004054513557</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Secondary Reserve, Summer'!C4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>9.4392383857262878</v>
+        <v>14.627473748461426</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Secondary Reserve, Summer'!D4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.0307106087916296</v>
+        <v>12.444754948579654</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Secondary Reserve, Summer'!E4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.1148018193548914</v>
+        <v>12.575066518721849</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Secondary Reserve, Summer'!F4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.0307106087916296</v>
+        <v>12.444754948579654</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Secondary Reserve, Summer'!G4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.1148018193548914</v>
+        <v>12.575066518721849</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Secondary Reserve, Summer'!H4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.6508832866956951</v>
+        <v>13.405802778378344</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Secondary Reserve, Summer'!I4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.5576975493732741</v>
+        <v>11.711752366529806</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Secondary Reserve, Summer'!J4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.0636616873141032</v>
+        <v>10.946171891944408</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Secondary Reserve, Summer'!K4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>6.8954792661875768</v>
+        <v>10.685548751660017</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Secondary Reserve, Summer'!L4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>6.0440557592345376</v>
+        <v>9.3661441039702886</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Secondary Reserve, Summer'!M4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>5.1926322522814985</v>
+        <v>8.0467394562805623</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Secondary Reserve, Summer'!N4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>4.8457560087080385</v>
+        <v>7.5092042294440065</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Secondary Reserve, Summer'!O4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>4.8457560087080385</v>
+        <v>7.5092042294440065</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Secondary Reserve, Summer'!P4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>6.4224662067692222</v>
+        <v>9.9525461696101694</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Secondary Reserve, Summer'!Q4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>4.8457560087080385</v>
+        <v>7.5092042294440065</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Secondary Reserve, Summer'!R4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>4.8457560087080385</v>
+        <v>7.5092042294440065</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Secondary Reserve, Summer'!S4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>4.8983130153100776</v>
+        <v>7.590648960782878</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Secondary Reserve, Summer'!T4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>5.865361936787604</v>
+        <v>9.0892320174181247</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Secondary Reserve, Summer'!U4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>5.8443391341467876</v>
+        <v>9.0566541248825736</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Secondary Reserve, Summer'!V4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>5.3503032720876167</v>
+        <v>8.2910736502971769</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Secondary Reserve, Summer'!W4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>4.5514367717366175</v>
+        <v>7.0531137339463221</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Secondary Reserve, Summer'!X4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>4.8562674100284458</v>
+        <v>7.5254931757117802</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Secondary Reserve, Summer'!Y4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.305423917683485</v>
+        <v>11.32081765610322</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -6863,99 +6858,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Secondary Reserve, Summer'!B5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>11.657144064332352</v>
+        <v>18.064441410961827</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Secondary Reserve, Summer'!C5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>19.961151107454583</v>
+        <v>30.932708962503614</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Secondary Reserve, Summer'!D5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>11.163108202273181</v>
+        <v>17.298860936376428</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Secondary Reserve, Summer'!E5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>11.163108202273181</v>
+        <v>17.298860936376428</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Secondary Reserve, Summer'!F5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>11.163108202273181</v>
+        <v>17.298860936376428</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Secondary Reserve, Summer'!G5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>11.163108202273181</v>
+        <v>17.298860936376428</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Secondary Reserve, Summer'!H5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>10.952880175865022</v>
+        <v>16.973082011020942</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Secondary Reserve, Summer'!I5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.0636616873141032</v>
+        <v>10.946171891944408</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Secondary Reserve, Summer'!J5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.3159353190038923</v>
+        <v>11.337106602370993</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Secondary Reserve, Summer'!K5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.8415053850242868</v>
+        <v>12.151553915759713</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Secondary Reserve, Summer'!L5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>11.015948583787472</v>
+        <v>17.070815688627587</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Secondary Reserve, Summer'!M5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>9.8807172411834188</v>
+        <v>15.311609491707951</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Secondary Reserve, Summer'!N5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.8926455170650769</v>
+        <v>13.780448542537156</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Secondary Reserve, Summer'!O5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>9.0713393395120114</v>
+        <v>14.057360629089322</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Secondary Reserve, Summer'!P5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.8926455170650769</v>
+        <v>13.780448542537156</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Secondary Reserve, Summer'!Q5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>11.446916037924195</v>
+        <v>17.738662485606341</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Secondary Reserve, Summer'!R5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>10.374753103242588</v>
+        <v>16.077189966293346</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Secondary Reserve, Summer'!S5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.4721894642487605</v>
+        <v>13.128890691826181</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Secondary Reserve, Summer'!T5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.4721894642487605</v>
+        <v>13.128890691826181</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Secondary Reserve, Summer'!U5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>9.197476155356906</v>
+        <v>14.252827984302614</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Secondary Reserve, Summer'!V5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>6.4855346146916686</v>
+        <v>10.050279847216814</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Secondary Reserve, Summer'!W5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>6.9375248714692077</v>
+        <v>10.750704536731114</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Secondary Reserve, Summer'!X5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>6.012521555273314</v>
+        <v>9.3172772651669646</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Secondary Reserve, Summer'!Y5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>10.784697754738497</v>
+        <v>16.712458870736551</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -6964,99 +6959,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Secondary Reserve, Summer'!B6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.9676422008691823</v>
+        <v>12.347021270973007</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Secondary Reserve, Summer'!C6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>9.933274247785457</v>
+        <v>15.393054223046821</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Secondary Reserve, Summer'!D6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>6.6537170358181958</v>
+        <v>10.310902987501205</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Secondary Reserve, Summer'!E6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.1477528978773659</v>
+        <v>11.076483462086602</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Secondary Reserve, Summer'!F6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.1477528978773659</v>
+        <v>11.076483462086602</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Secondary Reserve, Summer'!G6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>6.5696258252549322</v>
+        <v>10.180591417359009</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Secondary Reserve, Summer'!H6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.1673588259569314</v>
+        <v>12.656511250060721</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Secondary Reserve, Summer'!I6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>9.933274247785457</v>
+        <v>15.393054223046821</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Secondary Reserve, Summer'!J6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>9.6915120174160769</v>
+        <v>15.018408458888013</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Secondary Reserve, Summer'!K6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>9.0608279381916024</v>
+        <v>14.041071682821546</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Secondary Reserve, Summer'!L6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.452583536169195</v>
+        <v>11.54886290385206</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Secondary Reserve, Summer'!M6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>6.7588310490222741</v>
+        <v>10.47379245017895</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Secondary Reserve, Summer'!N6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>6.1491697724386158</v>
+        <v>9.5290335666480335</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Secondary Reserve, Summer'!O6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>6.7693424503426822</v>
+        <v>10.490081396446724</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Secondary Reserve, Summer'!P6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.1372414965569586</v>
+        <v>11.060194515818829</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Secondary Reserve, Summer'!Q6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.5562806748120241</v>
+        <v>13.259202261968376</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Secondary Reserve, Summer'!R6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.9452025236671151</v>
+        <v>13.861893273876028</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Secondary Reserve, Summer'!S6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>9.6389550108140369</v>
+        <v>14.93696372754914</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Secondary Reserve, Summer'!T6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>9.2395217606385351</v>
+        <v>14.31798376937371</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Secondary Reserve, Summer'!U6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.9886650035099969</v>
+        <v>12.379599163508555</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Secondary Reserve, Summer'!V6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>6.611671430536564</v>
+        <v>10.245747202430108</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Secondary Reserve, Summer'!W6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>6.9585476741100241</v>
+        <v>10.783282429266663</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Secondary Reserve, Summer'!X6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>6.8639450622263531</v>
+        <v>10.636681912856695</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Secondary Reserve, Summer'!Y6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.3986096550059059</v>
+        <v>13.014868067951758</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -7091,11 +7086,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A3DC1DB-E732-4F79-89B1-5F652B3EE8D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78952B52-95E9-4A46-956D-99C2442CB011}">
   <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B2" sqref="B2:Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7183,99 +7178,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!B2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>38.261500806284722</v>
+        <v>59.291764414698868</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!C2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>38.261500806284722</v>
+        <v>59.291764414698868</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!D2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>37.515191312535762</v>
+        <v>58.135249229686885</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!E2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>37.515191312535762</v>
+        <v>58.135249229686885</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!F2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>37.515191312535762</v>
+        <v>58.135249229686885</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!G2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>37.515191312535762</v>
+        <v>58.135249229686885</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!H2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>37.515191312535762</v>
+        <v>58.135249229686885</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!I2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>49.634837034966061</v>
+        <v>76.916404276430782</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!J2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>38.261500806284722</v>
+        <v>59.291764414698868</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!K2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>38.261500806284722</v>
+        <v>59.291764414698868</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!L2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>49.634837034966061</v>
+        <v>76.916404276430782</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!M2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>49.634837034966061</v>
+        <v>76.916404276430782</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!N2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>44.147885545713144</v>
+        <v>68.413574324652544</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!O2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>39.943325017549988</v>
+        <v>61.897995817542778</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!P2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>39.943325017549988</v>
+        <v>61.897995817542778</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Q2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>49.634837034966061</v>
+        <v>76.916404276430782</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!R2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>49.634837034966061</v>
+        <v>76.916404276430782</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!S2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>49.634837034966061</v>
+        <v>76.916404276430782</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!T2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>49.634837034966061</v>
+        <v>76.916404276430782</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!U2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>49.634837034966061</v>
+        <v>76.916404276430782</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!V2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>49.634837034966061</v>
+        <v>76.916404276430782</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!W2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>49.634837034966061</v>
+        <v>76.916404276430782</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!X2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>49.634837034966061</v>
+        <v>76.916404276430782</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Y2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>49.634837034966061</v>
+        <v>76.916404276430782</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -7284,99 +7279,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!B3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>49.634837034966061</v>
+        <v>76.916404276430782</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!C3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>49.634837034966061</v>
+        <v>76.916404276430782</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!D3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>49.634837034966061</v>
+        <v>76.916404276430782</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!E3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>37.84104475346841</v>
+        <v>58.640206563987896</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!F3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>37.515191312535762</v>
+        <v>58.135249229686885</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!G3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>37.515191312535762</v>
+        <v>58.135249229686885</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!H3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>37.515191312535762</v>
+        <v>58.135249229686885</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!I3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>49.634837034966061</v>
+        <v>76.916404276430782</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!J3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>49.634837034966061</v>
+        <v>76.916404276430782</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!K3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>49.634837034966061</v>
+        <v>76.916404276430782</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!L3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>49.634837034966061</v>
+        <v>76.916404276430782</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!M3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>49.634837034966061</v>
+        <v>76.916404276430782</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!N3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>49.634837034966061</v>
+        <v>76.916404276430782</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!O3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>49.634837034966061</v>
+        <v>76.916404276430782</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!P3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>49.634837034966061</v>
+        <v>76.916404276430782</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Q3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>49.634837034966061</v>
+        <v>76.916404276430782</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!R3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>49.634837034966061</v>
+        <v>76.916404276430782</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!S3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>49.634837034966061</v>
+        <v>76.916404276430782</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!T3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>49.634837034966061</v>
+        <v>76.916404276430782</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!U3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>49.634837034966061</v>
+        <v>76.916404276430782</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!V3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>49.634837034966061</v>
+        <v>76.916404276430782</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!W3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>49.634837034966061</v>
+        <v>76.916404276430782</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!X3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>37.84104475346841</v>
+        <v>58.640206563987896</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Y3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>49.634837034966061</v>
+        <v>76.916404276430782</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -7385,99 +7380,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!B4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>49.634837034966061</v>
+        <v>76.916404276430782</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!C4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>39.312640938325515</v>
+        <v>60.920659041476313</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!D4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>72.570714716096091</v>
+        <v>112.45888503271458</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!E4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>39.312640938325515</v>
+        <v>60.920659041476313</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!F4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>37.515191312535762</v>
+        <v>58.135249229686885</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!G4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>39.312640938325515</v>
+        <v>60.920659041476313</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!H4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>39.312640938325515</v>
+        <v>60.920659041476313</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!I4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>39.312640938325515</v>
+        <v>60.920659041476313</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!J4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>39.312640938325515</v>
+        <v>60.920659041476313</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!K4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>39.943325017549988</v>
+        <v>61.897995817542778</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!L4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>39.943325017549988</v>
+        <v>61.897995817542778</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!M4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>49.634837034966061</v>
+        <v>76.916404276430782</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!N4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>49.634837034966061</v>
+        <v>76.916404276430782</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!O4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>49.634837034966061</v>
+        <v>76.916404276430782</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!P4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>49.634837034966061</v>
+        <v>76.916404276430782</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Q4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>49.634837034966061</v>
+        <v>76.916404276430782</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!R4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>49.634837034966061</v>
+        <v>76.916404276430782</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!S4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>49.634837034966061</v>
+        <v>76.916404276430782</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!T4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>49.634837034966061</v>
+        <v>76.916404276430782</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!U4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>49.634837034966061</v>
+        <v>76.916404276430782</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!V4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>49.634837034966061</v>
+        <v>76.916404276430782</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!W4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>99.858312543874973</v>
+        <v>154.74498954385695</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!X4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>49.634837034966061</v>
+        <v>76.916404276430782</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Y4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>49.634837034966061</v>
+        <v>76.916404276430782</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -7486,99 +7481,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!B5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>38.892184885509195</v>
+        <v>60.26910119076534</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!C5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>37.515191312535762</v>
+        <v>58.135249229686885</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!D5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>37.515191312535762</v>
+        <v>58.135249229686885</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!E5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>37.515191312535762</v>
+        <v>58.135249229686885</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!F5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>37.515191312535762</v>
+        <v>58.135249229686885</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!G5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>37.515191312535762</v>
+        <v>58.135249229686885</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!H5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>49.634837034966061</v>
+        <v>76.916404276430782</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!I5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>49.634837034966061</v>
+        <v>76.916404276430782</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!J5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>49.634837034966061</v>
+        <v>76.916404276430782</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!K5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>49.634837034966061</v>
+        <v>76.916404276430782</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!L5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>37.84104475346841</v>
+        <v>58.640206563987896</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!M5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>40.363781070366301</v>
+        <v>62.549553668253751</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!N5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>49.634837034966061</v>
+        <v>76.916404276430782</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!O5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>49.634837034966061</v>
+        <v>76.916404276430782</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!P5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>49.634837034966061</v>
+        <v>76.916404276430782</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Q5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>49.634837034966061</v>
+        <v>76.916404276430782</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!R5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>49.634837034966061</v>
+        <v>76.916404276430782</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!S5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>49.634837034966061</v>
+        <v>76.916404276430782</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!T5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>49.634837034966061</v>
+        <v>76.916404276430782</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!U5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>49.634837034966061</v>
+        <v>76.916404276430782</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!V5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>49.529723021761981</v>
+        <v>76.753514813753043</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!W5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>49.634837034966061</v>
+        <v>76.916404276430782</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!X5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>49.634837034966061</v>
+        <v>76.916404276430782</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Y5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>49.449135611638852</v>
+        <v>76.628632892366767</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -7587,99 +7582,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!B6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>49.046198561023218</v>
+        <v>76.004223285435415</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!C6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>49.077732764984447</v>
+        <v>76.05309012423875</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!D6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>39.312640938325515</v>
+        <v>60.920659041476313</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!E6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>39.312640938325515</v>
+        <v>60.920659041476313</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!F6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>39.312640938325515</v>
+        <v>60.920659041476313</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!G6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>39.312640938325515</v>
+        <v>60.920659041476313</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!H6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>49.634837034966061</v>
+        <v>76.916404276430782</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!I6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>67.945698135116615</v>
+        <v>105.29174867489382</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!J6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>39.312640938325515</v>
+        <v>60.920659041476313</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!K6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>39.312640938325515</v>
+        <v>60.920659041476313</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!L6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>37.84104475346841</v>
+        <v>58.640206563987896</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!M6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>39.312640938325515</v>
+        <v>60.920659041476313</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!N6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>49.077732764984447</v>
+        <v>76.05309012423875</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!O6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>49.077732764984447</v>
+        <v>76.05309012423875</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!P6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>49.077732764984447</v>
+        <v>76.05309012423875</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Q6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>49.077732764984447</v>
+        <v>76.05309012423875</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!R6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>49.077732764984447</v>
+        <v>76.05309012423875</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!S6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>49.077732764984447</v>
+        <v>76.05309012423875</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!T6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>49.077732764984447</v>
+        <v>76.05309012423875</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!U6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>49.077732764984447</v>
+        <v>76.05309012423875</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!V6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>49.077732764984447</v>
+        <v>76.05309012423875</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!W6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>48.962107350459959</v>
+        <v>75.873911715293232</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!X6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>48.941084547819145</v>
+        <v>75.84133382275769</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Y6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>49.077732764984447</v>
+        <v>76.05309012423875</v>
       </c>
     </row>
   </sheetData>
@@ -7688,11 +7683,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB06EB1E-49A0-417F-AD8B-905096775CB2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFC6F8DD-C4F6-4B8F-AEB1-9B49F4112981}">
   <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B2" sqref="B2:Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7780,99 +7775,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!B2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>29.410900894501282</v>
+        <v>45.576471657232815</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!C2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>23.146105707538176</v>
+        <v>35.868259681639266</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!D2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>23.146105707538176</v>
+        <v>35.868259681639266</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!E2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>41.414921202407093</v>
+        <v>64.178448295031203</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!F2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>23.146105707538176</v>
+        <v>35.868259681639266</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!G2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>23.146105707538176</v>
+        <v>35.868259681639266</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!H2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>25.768700336979947</v>
+        <v>39.932351775448979</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!I2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>26.023601818999836</v>
+        <v>40.327358722442511</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!J2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>29.410900894501282</v>
+        <v>45.576471657232815</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!K2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>21.401213088350467</v>
+        <v>33.164294601188708</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!L2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>55.184856932141429</v>
+        <v>85.516967905815676</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!M2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>63.068407922447349</v>
+        <v>97.733677606646495</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!N2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>30.493575230503296</v>
+        <v>47.254233122813581</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!O2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>30.5040866318237</v>
+        <v>47.270522069081352</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!P2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>30.5040866318237</v>
+        <v>47.270522069081352</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Q2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>52.977462654855771</v>
+        <v>82.096289189583047</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!R2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>52.977462654855771</v>
+        <v>82.096289189583047</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!S2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>52.977462654855771</v>
+        <v>82.096289189583047</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!T2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>52.977462654855771</v>
+        <v>82.096289189583047</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!U2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>52.977462654855771</v>
+        <v>82.096289189583047</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!V2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>31.534203961223675</v>
+        <v>48.866838803323247</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!W2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>52.977462654855771</v>
+        <v>82.096289189583047</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!X2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>29.410900894501282</v>
+        <v>45.576471657232815</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Y2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>23.146105707538176</v>
+        <v>35.868259681639266</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -7881,99 +7876,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!B3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>52.977462654855771</v>
+        <v>82.096289189583047</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!C3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>27.329643433060518</v>
+        <v>42.351260296213482</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!D3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>27.329643433060518</v>
+        <v>42.351260296213482</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!E3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>29.158627262811489</v>
+        <v>45.185536946806224</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!F3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>35.325316037450783</v>
+        <v>54.741718757233876</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!G3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>32.280513454972635</v>
+        <v>50.023353988335231</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!H3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>25.768700336979947</v>
+        <v>39.932351775448979</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!I3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>23.146105707538176</v>
+        <v>35.868259681639266</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!J3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>26.023601818999836</v>
+        <v>40.327358722442511</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!K3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>29.410900894501282</v>
+        <v>45.576471657232815</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!L3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>55.184856932141429</v>
+        <v>85.516967905815676</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!M3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>55.184856932141429</v>
+        <v>85.516967905815676</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!N3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>55.184856932141429</v>
+        <v>85.516967905815676</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!O3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>52.977462654855771</v>
+        <v>82.096289189583047</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!P3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>52.977462654855771</v>
+        <v>82.096289189583047</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Q3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>52.977462654855771</v>
+        <v>82.096289189583047</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!R3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>52.977462654855771</v>
+        <v>82.096289189583047</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!S3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>31.51318115858286</v>
+        <v>48.834260910787698</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!T3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>29.410900894501282</v>
+        <v>45.576471657232815</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!U3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>29.410900894501282</v>
+        <v>45.576471657232815</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!V3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>52.977462654855771</v>
+        <v>82.096289189583047</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!W3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>29.431923697142096</v>
+        <v>45.609049549768365</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!X3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>52.977462654855771</v>
+        <v>82.096289189583047</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Y3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>52.977462654855771</v>
+        <v>82.096289189583047</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -7982,99 +7977,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!B4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>52.977462654855771</v>
+        <v>82.096289189583047</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!C4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>45.409253704162097</v>
+        <v>70.368247876785475</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!D4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>45.409253704162097</v>
+        <v>70.368247876785475</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!E4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>41.414921202407093</v>
+        <v>64.178448295031203</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!F4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>41.414921202407093</v>
+        <v>64.178448295031203</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!G4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>41.414921202407093</v>
+        <v>64.178448295031203</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!H4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>29.410900894501282</v>
+        <v>45.576471657232815</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!I4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>23.146105707538176</v>
+        <v>35.868259681639266</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!J4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>23.146105707538176</v>
+        <v>35.868259681639266</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!K4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>29.410900894501282</v>
+        <v>45.576471657232815</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!L4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>55.184856932141429</v>
+        <v>85.516967905815676</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!M4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>29.410900894501282</v>
+        <v>45.576471657232815</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!N4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>55.184856932141429</v>
+        <v>85.516967905815676</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!O4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>52.977462654855771</v>
+        <v>82.096289189583047</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!P4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>52.977462654855771</v>
+        <v>82.096289189583047</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Q4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>29.410900894501282</v>
+        <v>45.576471657232815</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!R4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>52.977462654855771</v>
+        <v>82.096289189583047</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!S4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>52.977462654855771</v>
+        <v>82.096289189583047</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!T4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>52.977462654855771</v>
+        <v>82.096289189583047</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!U4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>52.977462654855771</v>
+        <v>82.096289189583047</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!V4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>52.977462654855771</v>
+        <v>82.096289189583047</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!W4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>52.977462654855771</v>
+        <v>82.096289189583047</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!X4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>52.977462654855771</v>
+        <v>82.096289189583047</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Y4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>52.977462654855771</v>
+        <v>82.096289189583047</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -8083,99 +8078,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!B5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>16.39778605983631</v>
+        <v>25.410756177728089</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!C5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>45.409253704162097</v>
+        <v>70.368247876785475</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!D5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>39.382716947128237</v>
+        <v>61.02925201659481</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!E5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>35.286774232609289</v>
+        <v>54.681992620918713</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!F5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>41.414921202407093</v>
+        <v>64.178448295031203</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!G5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>32.280513454972635</v>
+        <v>50.023353988335231</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!H5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>25.768700336979947</v>
+        <v>39.932351775448979</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!I5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>29.410900894501282</v>
+        <v>45.576471657232815</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!J5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>29.410900894501282</v>
+        <v>45.576471657232815</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!K5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>26.162877886495242</v>
+        <v>40.543187260490519</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!L5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>27.329643433060518</v>
+        <v>42.351260296213482</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!M5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>37.318978487888153</v>
+        <v>57.831188899355105</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!N5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>55.184856932141429</v>
+        <v>85.516967905815676</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!O5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>52.977462654855771</v>
+        <v>82.096289189583047</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!P5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>52.977462654855771</v>
+        <v>82.096289189583047</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Q5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>52.977462654855771</v>
+        <v>82.096289189583047</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!R5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>52.977462654855771</v>
+        <v>82.096289189583047</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!S5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>52.977462654855771</v>
+        <v>82.096289189583047</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!T5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>29.410900894501282</v>
+        <v>45.576471657232815</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!U5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>52.977462654855771</v>
+        <v>82.096289189583047</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!V5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>52.977462654855771</v>
+        <v>82.096289189583047</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!W5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>29.410900894501282</v>
+        <v>45.576471657232815</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!X5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>23.146105707538176</v>
+        <v>35.868259681639266</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Y5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>52.977462654855771</v>
+        <v>82.096289189583047</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -8184,99 +8179,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!B6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>52.977462654855771</v>
+        <v>82.096289189583047</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!C6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>19.666831870483165</v>
+        <v>30.476618467005935</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!D6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>45.409253704162097</v>
+        <v>70.368247876785475</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!E6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>35.286774232609289</v>
+        <v>54.681992620918713</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!F6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>35.325316037450783</v>
+        <v>54.741718757233876</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!G6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>32.280513454972635</v>
+        <v>50.023353988335231</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!H6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>22.126499779458612</v>
+        <v>34.288231893665149</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!I6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>22.126499779458612</v>
+        <v>34.288231893665149</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!J6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>22.126499779458612</v>
+        <v>34.288231893665149</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!K6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>19.666831870483165</v>
+        <v>30.476618467005935</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!L6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>19.666831870483165</v>
+        <v>30.476618467005935</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!M6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>27.361177637021743</v>
+        <v>42.400127135016803</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!N6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>55.184856932141429</v>
+        <v>85.516967905815676</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!O6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>52.977462654855771</v>
+        <v>82.096289189583047</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!P6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>52.977462654855771</v>
+        <v>82.096289189583047</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Q6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>52.977462654855771</v>
+        <v>82.096289189583047</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!R6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>52.977462654855771</v>
+        <v>82.096289189583047</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!S6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>52.977462654855771</v>
+        <v>82.096289189583047</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!T6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>52.977462654855771</v>
+        <v>82.096289189583047</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!U6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>27.361177637021743</v>
+        <v>42.400127135016803</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!V6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>52.977462654855771</v>
+        <v>82.096289189583047</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!W6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>52.977462654855771</v>
+        <v>82.096289189583047</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!X6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>27.361177637021743</v>
+        <v>42.400127135016803</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Y6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>52.977462654855771</v>
+        <v>82.096289189583047</v>
       </c>
     </row>
   </sheetData>
